--- a/static/Left Leg.xlsx
+++ b/static/Left Leg.xlsx
@@ -7000,7 +7000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -7013,1122 +7013,1082 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>39</v>
+        <v>535</v>
       </c>
       <c r="B1" t="n">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>531</v>
       </c>
       <c r="B2" t="n">
-        <v>292</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44</v>
+        <v>527</v>
       </c>
       <c r="B3" t="n">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="B4" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53</v>
+        <v>516</v>
       </c>
       <c r="B5" t="n">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>57</v>
+        <v>514</v>
       </c>
       <c r="B6" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62</v>
+        <v>510</v>
       </c>
       <c r="B7" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65</v>
+        <v>507</v>
       </c>
       <c r="B8" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71</v>
+        <v>503</v>
       </c>
       <c r="B9" t="n">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="B10" t="n">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="B11" t="n">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="B12" t="n">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88</v>
+        <v>493</v>
       </c>
       <c r="B13" t="n">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>93</v>
+        <v>491</v>
       </c>
       <c r="B14" t="n">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107</v>
+        <v>484</v>
       </c>
       <c r="B16" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112</v>
+        <v>481</v>
       </c>
       <c r="B17" t="n">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>117</v>
+        <v>477</v>
       </c>
       <c r="B18" t="n">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>121</v>
+        <v>473</v>
       </c>
       <c r="B19" t="n">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>125</v>
+        <v>469</v>
       </c>
       <c r="B20" t="n">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>129</v>
+        <v>466</v>
       </c>
       <c r="B21" t="n">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>132</v>
+        <v>463</v>
       </c>
       <c r="B22" t="n">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>135</v>
+        <v>458</v>
       </c>
       <c r="B23" t="n">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>137</v>
+        <v>454</v>
       </c>
       <c r="B24" t="n">
-        <v>287</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>139</v>
+        <v>450</v>
       </c>
       <c r="B25" t="n">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>143</v>
+        <v>448</v>
       </c>
       <c r="B26" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>148</v>
+        <v>448</v>
       </c>
       <c r="B27" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>153</v>
+        <v>446</v>
       </c>
       <c r="B28" t="n">
-        <v>288</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>158</v>
+        <v>445</v>
       </c>
       <c r="B29" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>162</v>
+        <v>444</v>
       </c>
       <c r="B30" t="n">
-        <v>289</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="B31" t="n">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="B32" t="n">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>180</v>
+        <v>436</v>
       </c>
       <c r="B33" t="n">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>185</v>
+        <v>433</v>
       </c>
       <c r="B34" t="n">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>190</v>
+        <v>428</v>
       </c>
       <c r="B35" t="n">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="B36" t="n">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="B37" t="n">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="B38" t="n">
-        <v>293</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>203</v>
+        <v>416</v>
       </c>
       <c r="B39" t="n">
-        <v>293</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>205</v>
+        <v>414</v>
       </c>
       <c r="B40" t="n">
-        <v>293</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="B41" t="n">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="B42" t="n">
-        <v>291</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>217</v>
+        <v>400</v>
       </c>
       <c r="B43" t="n">
-        <v>291</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="B44" t="n">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="B45" t="n">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>228</v>
+        <v>391</v>
       </c>
       <c r="B46" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>232</v>
+        <v>386</v>
       </c>
       <c r="B47" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="B48" t="n">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="B49" t="n">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="B50" t="n">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="B51" t="n">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="B52" t="n">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="B53" t="n">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="B54" t="n">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>265</v>
+        <v>360</v>
       </c>
       <c r="B55" t="n">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="B56" t="n">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="B57" t="n">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="B58" t="n">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="B59" t="n">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="B60" t="n">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="B61" t="n">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B62" t="n">
-        <v>282</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B63" t="n">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="B64" t="n">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B65" t="n">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B66" t="n">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B67" t="n">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B68" t="n">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B69" t="n">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B70" t="n">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B71" t="n">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="B72" t="n">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="B73" t="n">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="B74" t="n">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="B75" t="n">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="B76" t="n">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="B77" t="n">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="B78" t="n">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="B79" t="n">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="B80" t="n">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="B81" t="n">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="B82" t="n">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>379</v>
+        <v>267</v>
       </c>
       <c r="B83" t="n">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="B84" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>387</v>
+        <v>262</v>
       </c>
       <c r="B85" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>392</v>
+        <v>258</v>
       </c>
       <c r="B86" t="n">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>397</v>
+        <v>254</v>
       </c>
       <c r="B87" t="n">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>402</v>
+        <v>250</v>
       </c>
       <c r="B88" t="n">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>407</v>
+        <v>246</v>
       </c>
       <c r="B89" t="n">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>411</v>
+        <v>242</v>
       </c>
       <c r="B90" t="n">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>417</v>
+        <v>240</v>
       </c>
       <c r="B91" t="n">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>421</v>
+        <v>237</v>
       </c>
       <c r="B92" t="n">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>425</v>
+        <v>234</v>
       </c>
       <c r="B93" t="n">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>429</v>
+        <v>232</v>
       </c>
       <c r="B94" t="n">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>432</v>
+        <v>230</v>
       </c>
       <c r="B95" t="n">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>434</v>
+        <v>228</v>
       </c>
       <c r="B96" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>436</v>
+        <v>226</v>
       </c>
       <c r="B97" t="n">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>437</v>
+        <v>224</v>
       </c>
       <c r="B98" t="n">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>440</v>
+        <v>221</v>
       </c>
       <c r="B99" t="n">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>445</v>
+        <v>217</v>
       </c>
       <c r="B100" t="n">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>452</v>
+        <v>213</v>
       </c>
       <c r="B101" t="n">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>457</v>
+        <v>209</v>
       </c>
       <c r="B102" t="n">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>462</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>466</v>
+        <v>202</v>
       </c>
       <c r="B104" t="n">
-        <v>279</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>471</v>
+        <v>199</v>
       </c>
       <c r="B105" t="n">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>475</v>
+        <v>195</v>
       </c>
       <c r="B106" t="n">
-        <v>281</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>481</v>
+        <v>192</v>
       </c>
       <c r="B107" t="n">
-        <v>281</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>487</v>
+        <v>187</v>
       </c>
       <c r="B108" t="n">
-        <v>279</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>492</v>
+        <v>183</v>
       </c>
       <c r="B109" t="n">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>498</v>
+        <v>180</v>
       </c>
       <c r="B110" t="n">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>504</v>
+        <v>176</v>
       </c>
       <c r="B111" t="n">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>510</v>
+        <v>172</v>
       </c>
       <c r="B112" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="B113" t="n">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>516</v>
+        <v>167</v>
       </c>
       <c r="B114" t="n">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>520</v>
+        <v>164</v>
       </c>
       <c r="B115" t="n">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>523</v>
+        <v>162</v>
       </c>
       <c r="B116" t="n">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>526</v>
+        <v>159</v>
       </c>
       <c r="B117" t="n">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>528</v>
+        <v>156</v>
       </c>
       <c r="B118" t="n">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>531</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>537</v>
+        <v>149</v>
       </c>
       <c r="B120" t="n">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>544</v>
+        <v>145</v>
       </c>
       <c r="B121" t="n">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>548</v>
+        <v>141</v>
       </c>
       <c r="B122" t="n">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>554</v>
+        <v>136</v>
       </c>
       <c r="B123" t="n">
-        <v>282</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>558</v>
+        <v>134</v>
       </c>
       <c r="B124" t="n">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>565</v>
+        <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>571</v>
+        <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>576</v>
+        <v>124</v>
       </c>
       <c r="B127" t="n">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>581</v>
+        <v>123</v>
       </c>
       <c r="B128" t="n">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>586</v>
+        <v>121</v>
       </c>
       <c r="B129" t="n">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>592</v>
+        <v>118</v>
       </c>
       <c r="B130" t="n">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>597</v>
+        <v>116</v>
       </c>
       <c r="B131" t="n">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>599</v>
+        <v>113</v>
       </c>
       <c r="B132" t="n">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="B133" t="n">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>601</v>
+        <v>108</v>
       </c>
       <c r="B134" t="n">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>604</v>
+        <v>104</v>
       </c>
       <c r="B135" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>613</v>
-      </c>
-      <c r="B136" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>624</v>
-      </c>
-      <c r="B137" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>633</v>
-      </c>
-      <c r="B138" t="n">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>632</v>
-      </c>
-      <c r="B139" t="n">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>640</v>
-      </c>
-      <c r="B140" t="n">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8143,7 +8103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -8156,1122 +8116,1082 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>23</v>
+        <v>506</v>
       </c>
       <c r="B1" t="n">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34</v>
+        <v>504</v>
       </c>
       <c r="B2" t="n">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45</v>
+        <v>502</v>
       </c>
       <c r="B3" t="n">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>58</v>
+        <v>498</v>
       </c>
       <c r="B4" t="n">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69</v>
+        <v>495</v>
       </c>
       <c r="B5" t="n">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="B6" t="n">
-        <v>358</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87</v>
+        <v>494</v>
       </c>
       <c r="B7" t="n">
-        <v>355</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92</v>
+        <v>489</v>
       </c>
       <c r="B8" t="n">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96</v>
+        <v>486</v>
       </c>
       <c r="B9" t="n">
-        <v>355</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99</v>
+        <v>486</v>
       </c>
       <c r="B10" t="n">
-        <v>356</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98</v>
+        <v>484</v>
       </c>
       <c r="B11" t="n">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101</v>
+        <v>485</v>
       </c>
       <c r="B12" t="n">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="B13" t="n">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="B14" t="n">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>118</v>
+        <v>476</v>
       </c>
       <c r="B15" t="n">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>121</v>
+        <v>473</v>
       </c>
       <c r="B16" t="n">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>123</v>
+        <v>469</v>
       </c>
       <c r="B17" t="n">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>123</v>
+        <v>465</v>
       </c>
       <c r="B18" t="n">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>123</v>
+        <v>461</v>
       </c>
       <c r="B19" t="n">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>125</v>
+        <v>459</v>
       </c>
       <c r="B20" t="n">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130</v>
+        <v>454</v>
       </c>
       <c r="B21" t="n">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>137</v>
+        <v>451</v>
       </c>
       <c r="B22" t="n">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>143</v>
+        <v>445</v>
       </c>
       <c r="B23" t="n">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>143</v>
+        <v>441</v>
       </c>
       <c r="B24" t="n">
-        <v>354</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="B25" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>138</v>
+        <v>428</v>
       </c>
       <c r="B26" t="n">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="B27" t="n">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>144</v>
+        <v>424</v>
       </c>
       <c r="B28" t="n">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>149</v>
+        <v>422</v>
       </c>
       <c r="B29" t="n">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>152</v>
+        <v>420</v>
       </c>
       <c r="B30" t="n">
-        <v>362</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>155</v>
+        <v>416</v>
       </c>
       <c r="B31" t="n">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>161</v>
+        <v>414</v>
       </c>
       <c r="B32" t="n">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>167</v>
+        <v>410</v>
       </c>
       <c r="B33" t="n">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="B34" t="n">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>182</v>
+        <v>404</v>
       </c>
       <c r="B35" t="n">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>188</v>
+        <v>400</v>
       </c>
       <c r="B36" t="n">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="B37" t="n">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="B38" t="n">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>214</v>
+        <v>394</v>
       </c>
       <c r="B39" t="n">
-        <v>358</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>217</v>
+        <v>398</v>
       </c>
       <c r="B40" t="n">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="B41" t="n">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>234</v>
+        <v>390</v>
       </c>
       <c r="B42" t="n">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>238</v>
+        <v>386</v>
       </c>
       <c r="B43" t="n">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>238</v>
+        <v>382</v>
       </c>
       <c r="B44" t="n">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="B45" t="n">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="B46" t="n">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="B47" t="n">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="B48" t="n">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="B49" t="n">
-        <v>359</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="B50" t="n">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>261</v>
+        <v>366</v>
       </c>
       <c r="B51" t="n">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>264</v>
+        <v>364</v>
       </c>
       <c r="B52" t="n">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="B53" t="n">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="B54" t="n">
-        <v>358</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="B55" t="n">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>275</v>
+        <v>342</v>
       </c>
       <c r="B56" t="n">
-        <v>359</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="B57" t="n">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="B58" t="n">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="B59" t="n">
-        <v>354</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="B60" t="n">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="B61" t="n">
-        <v>353</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="B62" t="n">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="B63" t="n">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B64" t="n">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B65" t="n">
-        <v>359</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B66" t="n">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B67" t="n">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B68" t="n">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B69" t="n">
-        <v>360</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B70" t="n">
-        <v>360</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B71" t="n">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B72" t="n">
-        <v>358</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="B73" t="n">
-        <v>358</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="B74" t="n">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="B75" t="n">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="B76" t="n">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="B77" t="n">
-        <v>348</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>368</v>
+        <v>273</v>
       </c>
       <c r="B78" t="n">
-        <v>346</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="B79" t="n">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="B80" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="B81" t="n">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>395</v>
+        <v>261</v>
       </c>
       <c r="B82" t="n">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="B83" t="n">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>393</v>
+        <v>253</v>
       </c>
       <c r="B84" t="n">
-        <v>349</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>401</v>
+        <v>249</v>
       </c>
       <c r="B85" t="n">
-        <v>350</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>403</v>
+        <v>245</v>
       </c>
       <c r="B86" t="n">
-        <v>350</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="B87" t="n">
-        <v>351</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="B88" t="n">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>424</v>
+        <v>230</v>
       </c>
       <c r="B89" t="n">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>415</v>
+        <v>227</v>
       </c>
       <c r="B90" t="n">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="B91" t="n">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>424</v>
+        <v>216</v>
       </c>
       <c r="B92" t="n">
-        <v>355</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>432</v>
+        <v>212</v>
       </c>
       <c r="B93" t="n">
-        <v>358</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>439</v>
+        <v>209</v>
       </c>
       <c r="B94" t="n">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>446</v>
+        <v>205</v>
       </c>
       <c r="B95" t="n">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>447</v>
+        <v>203</v>
       </c>
       <c r="B96" t="n">
-        <v>359</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>448</v>
+        <v>201</v>
       </c>
       <c r="B97" t="n">
-        <v>355</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>444</v>
+        <v>197</v>
       </c>
       <c r="B98" t="n">
-        <v>355</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>442</v>
+        <v>194</v>
       </c>
       <c r="B99" t="n">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>441</v>
+        <v>190</v>
       </c>
       <c r="B100" t="n">
-        <v>357</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>442</v>
+        <v>187</v>
       </c>
       <c r="B101" t="n">
-        <v>357</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>443</v>
+        <v>184</v>
       </c>
       <c r="B102" t="n">
-        <v>357</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>446</v>
+        <v>181</v>
       </c>
       <c r="B103" t="n">
-        <v>357</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="B104" t="n">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>454</v>
+        <v>175</v>
       </c>
       <c r="B105" t="n">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>458</v>
+        <v>171</v>
       </c>
       <c r="B106" t="n">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>466</v>
+        <v>170</v>
       </c>
       <c r="B107" t="n">
-        <v>355</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>476</v>
+        <v>165</v>
       </c>
       <c r="B108" t="n">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>487</v>
+        <v>162</v>
       </c>
       <c r="B109" t="n">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>492</v>
+        <v>163</v>
       </c>
       <c r="B110" t="n">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>502</v>
+        <v>163</v>
       </c>
       <c r="B111" t="n">
-        <v>355</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>507</v>
+        <v>160</v>
       </c>
       <c r="B112" t="n">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>510</v>
+        <v>159</v>
       </c>
       <c r="B113" t="n">
-        <v>359</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>515</v>
+        <v>156</v>
       </c>
       <c r="B114" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>527</v>
+        <v>153</v>
       </c>
       <c r="B115" t="n">
-        <v>359</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>527</v>
+        <v>152</v>
       </c>
       <c r="B116" t="n">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>534</v>
+        <v>150</v>
       </c>
       <c r="B117" t="n">
-        <v>348</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>533</v>
+        <v>148</v>
       </c>
       <c r="B118" t="n">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>531</v>
+        <v>144</v>
       </c>
       <c r="B119" t="n">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>534</v>
+        <v>142</v>
       </c>
       <c r="B120" t="n">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>542</v>
+        <v>140</v>
       </c>
       <c r="B121" t="n">
-        <v>352</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>551</v>
+        <v>137</v>
       </c>
       <c r="B122" t="n">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>556</v>
+        <v>131</v>
       </c>
       <c r="B123" t="n">
-        <v>352</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>547</v>
+        <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>559</v>
+        <v>122</v>
       </c>
       <c r="B125" t="n">
-        <v>354</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>565</v>
+        <v>118</v>
       </c>
       <c r="B126" t="n">
-        <v>354</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>577</v>
+        <v>114</v>
       </c>
       <c r="B127" t="n">
-        <v>354</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>585</v>
+        <v>111</v>
       </c>
       <c r="B128" t="n">
-        <v>357</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="B129" t="n">
-        <v>357</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>601</v>
+        <v>105</v>
       </c>
       <c r="B130" t="n">
-        <v>357</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>611</v>
+        <v>102</v>
       </c>
       <c r="B131" t="n">
-        <v>358</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>613</v>
+        <v>103</v>
       </c>
       <c r="B132" t="n">
-        <v>356</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>611</v>
+        <v>105</v>
       </c>
       <c r="B133" t="n">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>608</v>
+        <v>108</v>
       </c>
       <c r="B134" t="n">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>605</v>
+        <v>101</v>
       </c>
       <c r="B135" t="n">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>608</v>
-      </c>
-      <c r="B136" t="n">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>618</v>
-      </c>
-      <c r="B137" t="n">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>623</v>
-      </c>
-      <c r="B138" t="n">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>623</v>
-      </c>
-      <c r="B139" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>628</v>
-      </c>
-      <c r="B140" t="n">
-        <v>353</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -9286,7 +9206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView zoomScale="73" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -9299,1122 +9219,1082 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-4</v>
+        <v>483</v>
       </c>
       <c r="B1" t="n">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3</v>
+        <v>483</v>
       </c>
       <c r="B2" t="n">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>483</v>
       </c>
       <c r="B3" t="n">
-        <v>418</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23</v>
+        <v>481</v>
       </c>
       <c r="B4" t="n">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37</v>
+        <v>481</v>
       </c>
       <c r="B5" t="n">
-        <v>411</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45</v>
+        <v>522</v>
       </c>
       <c r="B6" t="n">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>490</v>
       </c>
       <c r="B7" t="n">
-        <v>411</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69</v>
+        <v>482</v>
       </c>
       <c r="B8" t="n">
-        <v>421</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89</v>
+        <v>480</v>
       </c>
       <c r="B9" t="n">
-        <v>425</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108</v>
+        <v>479</v>
       </c>
       <c r="B10" t="n">
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>479</v>
       </c>
       <c r="B11" t="n">
-        <v>427</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>124</v>
+        <v>480</v>
       </c>
       <c r="B12" t="n">
-        <v>427</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>128</v>
+        <v>481</v>
       </c>
       <c r="B13" t="n">
-        <v>428</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>132</v>
+        <v>480</v>
       </c>
       <c r="B14" t="n">
-        <v>430</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>134</v>
+        <v>480</v>
       </c>
       <c r="B15" t="n">
-        <v>431</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>132</v>
+        <v>502</v>
       </c>
       <c r="B16" t="n">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>132</v>
+        <v>507</v>
       </c>
       <c r="B17" t="n">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130</v>
+        <v>501</v>
       </c>
       <c r="B18" t="n">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>123</v>
+        <v>492</v>
       </c>
       <c r="B19" t="n">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91</v>
+        <v>484</v>
       </c>
       <c r="B20" t="n">
-        <v>419</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104</v>
+        <v>477</v>
       </c>
       <c r="B21" t="n">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>114</v>
+        <v>471</v>
       </c>
       <c r="B22" t="n">
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>124</v>
+        <v>465</v>
       </c>
       <c r="B23" t="n">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>132</v>
+        <v>456</v>
       </c>
       <c r="B24" t="n">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="B25" t="n">
-        <v>426</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="B26" t="n">
-        <v>428</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>132</v>
+        <v>421</v>
       </c>
       <c r="B27" t="n">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="B28" t="n">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>133</v>
+        <v>403</v>
       </c>
       <c r="B29" t="n">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="B30" t="n">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="B31" t="n">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="B32" t="n">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>139</v>
+        <v>383</v>
       </c>
       <c r="B33" t="n">
-        <v>428</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>144</v>
+        <v>381</v>
       </c>
       <c r="B34" t="n">
-        <v>427</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="B35" t="n">
-        <v>423</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>153</v>
+        <v>380</v>
       </c>
       <c r="B36" t="n">
-        <v>418</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>161</v>
+        <v>378</v>
       </c>
       <c r="B37" t="n">
-        <v>411</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>174</v>
+        <v>377</v>
       </c>
       <c r="B38" t="n">
-        <v>408</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>188</v>
+        <v>377</v>
       </c>
       <c r="B39" t="n">
-        <v>417</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>196</v>
+        <v>416</v>
       </c>
       <c r="B40" t="n">
-        <v>417</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>206</v>
+        <v>460</v>
       </c>
       <c r="B41" t="n">
-        <v>416</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>214</v>
+        <v>385</v>
       </c>
       <c r="B42" t="n">
-        <v>421</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>223</v>
+        <v>377</v>
       </c>
       <c r="B43" t="n">
-        <v>426</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>230</v>
+        <v>376</v>
       </c>
       <c r="B44" t="n">
-        <v>429</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>245</v>
+        <v>376</v>
       </c>
       <c r="B45" t="n">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="B46" t="n">
-        <v>428</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="B47" t="n">
-        <v>428</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>273</v>
+        <v>377</v>
       </c>
       <c r="B48" t="n">
-        <v>429</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="B49" t="n">
-        <v>431</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>278</v>
+        <v>385</v>
       </c>
       <c r="B50" t="n">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="B51" t="n">
-        <v>434</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="B52" t="n">
-        <v>434</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="B53" t="n">
-        <v>434</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="B54" t="n">
-        <v>434</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="B55" t="n">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B56" t="n">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="B57" t="n">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="B58" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="B59" t="n">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="B60" t="n">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="B61" t="n">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="B62" t="n">
-        <v>427</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="B63" t="n">
-        <v>429</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B64" t="n">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B65" t="n">
-        <v>432</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B66" t="n">
-        <v>432</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B67" t="n">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B68" t="n">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B69" t="n">
-        <v>431</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="B70" t="n">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="B71" t="n">
-        <v>424</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="B72" t="n">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="B73" t="n">
-        <v>422</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="B74" t="n">
-        <v>412</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="B75" t="n">
-        <v>408</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="B76" t="n">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="B77" t="n">
-        <v>415</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B78" t="n">
-        <v>414</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="B79" t="n">
-        <v>415</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>368</v>
+        <v>273</v>
       </c>
       <c r="B80" t="n">
-        <v>422</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="B81" t="n">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="B82" t="n">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>416</v>
+        <v>307</v>
       </c>
       <c r="B83" t="n">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>423</v>
+        <v>294</v>
       </c>
       <c r="B84" t="n">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="B85" t="n">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>432</v>
+        <v>273</v>
       </c>
       <c r="B86" t="n">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>434</v>
+        <v>268</v>
       </c>
       <c r="B87" t="n">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>433</v>
+        <v>260</v>
       </c>
       <c r="B88" t="n">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>432</v>
+        <v>253</v>
       </c>
       <c r="B89" t="n">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>431</v>
+        <v>246</v>
       </c>
       <c r="B90" t="n">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>433</v>
+        <v>234</v>
       </c>
       <c r="B91" t="n">
-        <v>429</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="B92" t="n">
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>431</v>
+        <v>210</v>
       </c>
       <c r="B93" t="n">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>429</v>
+        <v>199</v>
       </c>
       <c r="B94" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>427</v>
+        <v>191</v>
       </c>
       <c r="B95" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>430</v>
+        <v>183</v>
       </c>
       <c r="B96" t="n">
-        <v>426</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>434</v>
+        <v>178</v>
       </c>
       <c r="B97" t="n">
-        <v>425</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>438</v>
+        <v>170</v>
       </c>
       <c r="B98" t="n">
-        <v>425</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>440</v>
+        <v>167</v>
       </c>
       <c r="B99" t="n">
-        <v>425</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>438</v>
+        <v>164</v>
       </c>
       <c r="B100" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>437</v>
+        <v>164</v>
       </c>
       <c r="B101" t="n">
-        <v>427</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="B102" t="n">
-        <v>428</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>437</v>
+        <v>162</v>
       </c>
       <c r="B103" t="n">
-        <v>428</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="B104" t="n">
-        <v>429</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>439</v>
+        <v>160</v>
       </c>
       <c r="B105" t="n">
-        <v>428</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>439</v>
+        <v>160</v>
       </c>
       <c r="B106" t="n">
-        <v>428</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="B107" t="n">
-        <v>426</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>442</v>
+        <v>159</v>
       </c>
       <c r="B108" t="n">
-        <v>425</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>448</v>
+        <v>158</v>
       </c>
       <c r="B109" t="n">
-        <v>421</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>451</v>
+        <v>158</v>
       </c>
       <c r="B110" t="n">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>459</v>
+        <v>159</v>
       </c>
       <c r="B111" t="n">
-        <v>412</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>466</v>
+        <v>160</v>
       </c>
       <c r="B112" t="n">
-        <v>408</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>473</v>
+        <v>160</v>
       </c>
       <c r="B113" t="n">
-        <v>404</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>487</v>
+        <v>160</v>
       </c>
       <c r="B114" t="n">
-        <v>408</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>498</v>
+        <v>160</v>
       </c>
       <c r="B115" t="n">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>511</v>
+        <v>159</v>
       </c>
       <c r="B116" t="n">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>522</v>
+        <v>158</v>
       </c>
       <c r="B117" t="n">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>527</v>
+        <v>158</v>
       </c>
       <c r="B118" t="n">
-        <v>425</v>
+        <v>459</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>523</v>
+        <v>162</v>
       </c>
       <c r="B119" t="n">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>520</v>
+        <v>161</v>
       </c>
       <c r="B120" t="n">
-        <v>432</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>531</v>
+        <v>159</v>
       </c>
       <c r="B121" t="n">
-        <v>431</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>576</v>
+        <v>154</v>
       </c>
       <c r="B122" t="n">
-        <v>429</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>576</v>
+        <v>149</v>
       </c>
       <c r="B123" t="n">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>539</v>
+        <v>144</v>
       </c>
       <c r="B124" t="n">
-        <v>429</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>564</v>
+        <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>433</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>557</v>
+        <v>117</v>
       </c>
       <c r="B126" t="n">
-        <v>429</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>597</v>
+        <v>109</v>
       </c>
       <c r="B127" t="n">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>593</v>
+        <v>100</v>
       </c>
       <c r="B128" t="n">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>599</v>
+        <v>90</v>
       </c>
       <c r="B129" t="n">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>601</v>
+        <v>90</v>
       </c>
       <c r="B130" t="n">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>597</v>
+        <v>87</v>
       </c>
       <c r="B131" t="n">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>591</v>
+        <v>96</v>
       </c>
       <c r="B132" t="n">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>596</v>
+        <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>422</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>603</v>
+        <v>152</v>
       </c>
       <c r="B134" t="n">
-        <v>423</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>604</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>604</v>
-      </c>
-      <c r="B136" t="n">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>604</v>
-      </c>
-      <c r="B137" t="n">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>605</v>
-      </c>
-      <c r="B138" t="n">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>605</v>
-      </c>
-      <c r="B139" t="n">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>605</v>
-      </c>
-      <c r="B140" t="n">
-        <v>427</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -10429,7 +10309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -10442,1122 +10322,1082 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.776052713394165</v>
+        <v>0.2503135204315186</v>
       </c>
       <c r="B1" t="n">
-        <v>472.5477524885053</v>
+        <v>2528.030149275779</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8267092704772949</v>
+        <v>0.4774160385131836</v>
       </c>
       <c r="B2" t="n">
-        <v>159.1552646396397</v>
+        <v>189.3929961610833</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8835320472717285</v>
+        <v>0.5541348457336426</v>
       </c>
       <c r="B3" t="n">
-        <v>101.8980086492715</v>
+        <v>622.2549254794693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9397287368774414</v>
+        <v>0.6428849697113037</v>
       </c>
       <c r="B4" t="n">
-        <v>210.9831339966454</v>
+        <v>574.4042718504179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.010430574417114</v>
+        <v>0.7455549240112305</v>
       </c>
       <c r="B5" t="n">
-        <v>240.5318122111412</v>
+        <v>481.6226565119123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.081166982650757</v>
+        <v>0.8210761547088623</v>
       </c>
       <c r="B6" t="n">
-        <v>378.6632592069251</v>
+        <v>497.2642994452727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.142404317855835</v>
+        <v>0.9090273380279541</v>
       </c>
       <c r="B7" t="n">
-        <v>585.7752131538607</v>
+        <v>277.5162942066424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.204980850219727</v>
+        <v>1.019978761672974</v>
       </c>
       <c r="B8" t="n">
-        <v>679.4190015222108</v>
+        <v>310.9041842037446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.262974977493286</v>
+        <v>1.106729984283447</v>
       </c>
       <c r="B9" t="n">
-        <v>807.9469860080908</v>
+        <v>379.9776743381905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.331445693969727</v>
+        <v>1.201400518417358</v>
       </c>
       <c r="B10" t="n">
-        <v>713.4210505395757</v>
+        <v>287.2052389055845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.395052909851074</v>
+        <v>1.283854722976685</v>
       </c>
       <c r="B11" t="n">
-        <v>717.2429718649956</v>
+        <v>268.1814062692732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.46345067024231</v>
+        <v>1.356483459472656</v>
       </c>
       <c r="B12" t="n">
-        <v>666.7819822505446</v>
+        <v>201.5732198041459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.519363164901733</v>
+        <v>1.442941188812256</v>
       </c>
       <c r="B13" t="n">
-        <v>945.8363086872607</v>
+        <v>127.0036191106073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.593651294708252</v>
+        <v>1.518989562988281</v>
       </c>
       <c r="B14" t="n">
-        <v>740.1742035336366</v>
+        <v>161.0806321031718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.655529737472534</v>
+        <v>1.60544228553772</v>
       </c>
       <c r="B15" t="n">
-        <v>898.302450999219</v>
+        <v>126.6234832779094</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.707115411758423</v>
+        <v>1.678185701370239</v>
       </c>
       <c r="B16" t="n">
-        <v>985.4546595403311</v>
+        <v>140.0152769204352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.758418321609497</v>
+        <v>1.746875286102295</v>
       </c>
       <c r="B17" t="n">
-        <v>856.061523344554</v>
+        <v>125.6327413331733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.81696081161499</v>
+        <v>1.817748785018921</v>
       </c>
       <c r="B18" t="n">
-        <v>519.5602600707523</v>
+        <v>94.54214472730099</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.88317608833313</v>
+        <v>1.889966726303101</v>
       </c>
       <c r="B19" t="n">
-        <v>207.6332771022859</v>
+        <v>89.35878599431925</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.945143699645996</v>
+        <v>1.966105461120605</v>
       </c>
       <c r="B20" t="n">
-        <v>69.10574356608561</v>
+        <v>89.3051538147686</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.011714696884155</v>
+        <v>2.03820013999939</v>
       </c>
       <c r="B21" t="n">
-        <v>32.2335030452074</v>
+        <v>131.3426092393125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.068618059158325</v>
+        <v>2.105325937271118</v>
       </c>
       <c r="B22" t="n">
-        <v>76.62052253371964</v>
+        <v>191.415630747502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.125151395797729</v>
+        <v>2.179821968078613</v>
       </c>
       <c r="B23" t="n">
-        <v>95.67000349786296</v>
+        <v>252.3481879672133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.191162347793579</v>
+        <v>2.248590707778931</v>
       </c>
       <c r="B24" t="n">
-        <v>101.7779811704008</v>
+        <v>324.8930295622802</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.251835584640503</v>
+        <v>2.320849418640137</v>
       </c>
       <c r="B25" t="n">
-        <v>270.2831716190157</v>
+        <v>411.192008235192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.307240009307861</v>
+        <v>2.395161151885986</v>
       </c>
       <c r="B26" t="n">
-        <v>455.6412794499138</v>
+        <v>455.4120348496672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.359434127807617</v>
+        <v>2.468090057373047</v>
       </c>
       <c r="B27" t="n">
-        <v>488.8360341370325</v>
+        <v>450.8777251576549</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.422409772872925</v>
+        <v>2.546090841293335</v>
       </c>
       <c r="B28" t="n">
-        <v>365.8557325972623</v>
+        <v>420.194883594669</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.481630563735962</v>
+        <v>2.620973587036133</v>
       </c>
       <c r="B29" t="n">
-        <v>309.0095720913013</v>
+        <v>429.8581547685027</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.531907796859741</v>
+        <v>2.696680307388306</v>
       </c>
       <c r="B30" t="n">
-        <v>374.5768211612223</v>
+        <v>436.5066903564645</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.585953950881958</v>
+        <v>2.773746967315674</v>
       </c>
       <c r="B31" t="n">
-        <v>372.8754839378953</v>
+        <v>452.4230048866589</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.643664836883545</v>
+        <v>2.843919038772583</v>
       </c>
       <c r="B32" t="n">
-        <v>281.9870514913234</v>
+        <v>529.7271628326567</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.702018976211548</v>
+        <v>2.916687965393066</v>
       </c>
       <c r="B33" t="n">
-        <v>285.5113546361703</v>
+        <v>560.0462138515056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.762354135513306</v>
+        <v>2.987344026565552</v>
       </c>
       <c r="B34" t="n">
-        <v>271.3160909420219</v>
+        <v>596.93426343448</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.818520307540894</v>
+        <v>3.061697483062744</v>
       </c>
       <c r="B35" t="n">
-        <v>149.9446675149287</v>
+        <v>584.0936289339193</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.869892358779907</v>
+        <v>3.140803575515747</v>
       </c>
       <c r="B36" t="n">
-        <v>92.85200467588326</v>
+        <v>588.1396501886251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.921818017959595</v>
+        <v>3.21005654335022</v>
       </c>
       <c r="B37" t="n">
-        <v>58.10322076557208</v>
+        <v>614.7088649731992</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.980326175689697</v>
+        <v>3.280832290649414</v>
       </c>
       <c r="B38" t="n">
-        <v>110.7121696025062</v>
+        <v>557.2677751693096</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.039362668991089</v>
+        <v>3.35180926322937</v>
       </c>
       <c r="B39" t="n">
-        <v>168.0335992499951</v>
+        <v>528.5349112089427</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.098394393920898</v>
+        <v>3.420530319213867</v>
       </c>
       <c r="B40" t="n">
-        <v>159.1676839867744</v>
+        <v>332.1121797414886</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.157248973846436</v>
+        <v>3.492360591888428</v>
       </c>
       <c r="B41" t="n">
-        <v>277.0773960273879</v>
+        <v>86.10088737240616</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.213223695755005</v>
+        <v>3.572072267532349</v>
       </c>
       <c r="B42" t="n">
-        <v>491.749341756799</v>
+        <v>27.15383793687223</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.271913290023804</v>
+        <v>3.650217056274414</v>
       </c>
       <c r="B43" t="n">
-        <v>568.1539964787873</v>
+        <v>191.4087269039001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.323868274688721</v>
+        <v>3.724889516830444</v>
       </c>
       <c r="B44" t="n">
-        <v>596.8444429126425</v>
+        <v>260.42592741755</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.378018617630005</v>
+        <v>3.803173542022705</v>
       </c>
       <c r="B45" t="n">
-        <v>589.7801787656166</v>
+        <v>193.7830688153011</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.438287973403931</v>
+        <v>3.87826132774353</v>
       </c>
       <c r="B46" t="n">
-        <v>552.6161917491085</v>
+        <v>157.2792240018527</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.520262002944946</v>
+        <v>3.954209804534912</v>
       </c>
       <c r="B47" t="n">
-        <v>436.4604230367959</v>
+        <v>133.5024140668897</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.578028440475464</v>
+        <v>4.026817560195923</v>
       </c>
       <c r="B48" t="n">
-        <v>724.866114817383</v>
+        <v>149.1401755521073</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.642692565917969</v>
+        <v>4.100943088531494</v>
       </c>
       <c r="B49" t="n">
-        <v>677.3814611630296</v>
+        <v>143.1084185795709</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.70757269859314</v>
+        <v>4.17664909362793</v>
       </c>
       <c r="B50" t="n">
-        <v>637.16802178699</v>
+        <v>101.7090658121199</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.7772216796875</v>
+        <v>4.252081394195557</v>
       </c>
       <c r="B51" t="n">
-        <v>595.4739943844168</v>
+        <v>106.6155363041622</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.847446918487549</v>
+        <v>4.325676679611206</v>
       </c>
       <c r="B52" t="n">
-        <v>438.6645290937013</v>
+        <v>133.5533535331465</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.909722328186035</v>
+        <v>4.398096561431885</v>
       </c>
       <c r="B53" t="n">
-        <v>366.3915695743052</v>
+        <v>141.9846234928666</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.987824440002441</v>
+        <v>4.469135284423828</v>
       </c>
       <c r="B54" t="n">
-        <v>208.4457536206805</v>
+        <v>87.09184966795775</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.044529676437378</v>
+        <v>4.54180908203125</v>
       </c>
       <c r="B55" t="n">
-        <v>178.6065407634554</v>
+        <v>267.6701289818796</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.101319074630737</v>
+        <v>4.616511821746826</v>
       </c>
       <c r="B56" t="n">
-        <v>112.3328854746484</v>
+        <v>287.2741231093371</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.15956974029541</v>
+        <v>4.686092138290405</v>
       </c>
       <c r="B57" t="n">
-        <v>128.0039063692129</v>
+        <v>390.992817793814</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.23332667350769</v>
+        <v>4.761910438537598</v>
       </c>
       <c r="B58" t="n">
-        <v>87.03651159814761</v>
+        <v>426.8960853830478</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.293083429336548</v>
+        <v>4.839035511016846</v>
       </c>
       <c r="B59" t="n">
-        <v>96.5892865014731</v>
+        <v>443.7565810790259</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.35165548324585</v>
+        <v>4.908906221389771</v>
       </c>
       <c r="B60" t="n">
-        <v>201.0052759298227</v>
+        <v>489.0843473782547</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.402152299880981</v>
+        <v>4.982877016067505</v>
       </c>
       <c r="B61" t="n">
-        <v>262.2482817262587</v>
+        <v>458.7258671873715</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.454903364181519</v>
+        <v>5.058202981948853</v>
       </c>
       <c r="B62" t="n">
-        <v>493.5534590855429</v>
+        <v>413.1448777511351</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.51797080039978</v>
+        <v>5.131650924682617</v>
       </c>
       <c r="B63" t="n">
-        <v>482.277922536205</v>
+        <v>134.7400022139884</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.577518224716187</v>
+        <v>5.20522403717041</v>
       </c>
       <c r="B64" t="n">
-        <v>576.3773747212515</v>
+        <v>212.0765519690017</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.636302709579468</v>
+        <v>5.279849529266357</v>
       </c>
       <c r="B65" t="n">
-        <v>552.6320662226335</v>
+        <v>451.5496941844582</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.697024583816528</v>
+        <v>5.355498075485229</v>
       </c>
       <c r="B66" t="n">
-        <v>496.2196115635091</v>
+        <v>572.4036711410163</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.752908945083618</v>
+        <v>5.432746648788452</v>
       </c>
       <c r="B67" t="n">
-        <v>545.6635320675531</v>
+        <v>638.6399083846627</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.81283974647522</v>
+        <v>5.506473302841187</v>
       </c>
       <c r="B68" t="n">
-        <v>491.4724205036514</v>
+        <v>675.6266321502885</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.868378877639771</v>
+        <v>5.581482172012329</v>
       </c>
       <c r="B69" t="n">
-        <v>489.0274367152496</v>
+        <v>633.4445771972453</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.924958229064941</v>
+        <v>5.653256177902222</v>
       </c>
       <c r="B70" t="n">
-        <v>412.3415313039994</v>
+        <v>500.3887509083219</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.976008653640747</v>
+        <v>5.730730533599854</v>
       </c>
       <c r="B71" t="n">
-        <v>254.4849862353215</v>
+        <v>90.11392919292786</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.031683444976807</v>
+        <v>5.80584454536438</v>
       </c>
       <c r="B72" t="n">
-        <v>85.73641095249842</v>
+        <v>323.5619343794263</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.089765310287476</v>
+        <v>5.879685163497925</v>
       </c>
       <c r="B73" t="n">
-        <v>18.31253929444638</v>
+        <v>43.09378777967663</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.151076555252075</v>
+        <v>5.955669641494751</v>
       </c>
       <c r="B74" t="n">
-        <v>25.15773991430805</v>
+        <v>312.0765101656294</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5.215439319610596</v>
+        <v>6.031784772872925</v>
       </c>
       <c r="B75" t="n">
-        <v>23.13595182780274</v>
+        <v>339.1003065512758</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.280914783477783</v>
+        <v>6.10684061050415</v>
       </c>
       <c r="B76" t="n">
-        <v>36.36372007172626</v>
+        <v>324.5415159782942</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5.344442844390869</v>
+        <v>6.178712844848633</v>
       </c>
       <c r="B77" t="n">
-        <v>215.6232778120502</v>
+        <v>325.5375015103035</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5.404910326004028</v>
+        <v>6.250178575515747</v>
       </c>
       <c r="B78" t="n">
-        <v>146.7726291672911</v>
+        <v>239.193088315261</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5.532465934753418</v>
+        <v>6.324000120162964</v>
       </c>
       <c r="B79" t="n">
-        <v>130.6729078706105</v>
+        <v>131.5337382269007</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5.598355293273926</v>
+        <v>6.395433664321899</v>
       </c>
       <c r="B80" t="n">
-        <v>204.4462676843319</v>
+        <v>150.3798844728772</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.655651569366455</v>
+        <v>6.464901447296143</v>
       </c>
       <c r="B81" t="n">
-        <v>255.1000175547219</v>
+        <v>123.2376916419865</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5.72712779045105</v>
+        <v>6.539886236190796</v>
       </c>
       <c r="B82" t="n">
-        <v>260.5430482241864</v>
+        <v>99.78134254581812</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.788008213043213</v>
+        <v>6.614708423614502</v>
       </c>
       <c r="B83" t="n">
-        <v>308.8432944241418</v>
+        <v>114.0945129013219</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.851855039596558</v>
+        <v>6.68843150138855</v>
       </c>
       <c r="B84" t="n">
-        <v>348.9478286156727</v>
+        <v>88.64451521090136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.912014484405518</v>
+        <v>6.764310359954834</v>
       </c>
       <c r="B85" t="n">
-        <v>437.8098853248349</v>
+        <v>83.5302411726047</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.966878175735474</v>
+        <v>6.843263149261475</v>
       </c>
       <c r="B86" t="n">
-        <v>497.8564891596413</v>
+        <v>95.83548650136883</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6.02712345123291</v>
+        <v>6.919843435287476</v>
       </c>
       <c r="B87" t="n">
-        <v>505.7090218666468</v>
+        <v>152.2722105949626</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6.08619499206543</v>
+        <v>6.995961666107178</v>
       </c>
       <c r="B88" t="n">
-        <v>599.6767993617367</v>
+        <v>215.7279543862119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6.148677349090576</v>
+        <v>7.074205160140991</v>
       </c>
       <c r="B89" t="n">
-        <v>575.4111382610548</v>
+        <v>278.9543473354808</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6.207872629165649</v>
+        <v>7.149411678314209</v>
       </c>
       <c r="B90" t="n">
-        <v>218.9046051447493</v>
+        <v>324.5944865433081</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.278367757797241</v>
+        <v>7.223757743835449</v>
       </c>
       <c r="B91" t="n">
-        <v>126.2911944290728</v>
+        <v>400.9149435297456</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6.33683180809021</v>
+        <v>7.296116590499878</v>
       </c>
       <c r="B92" t="n">
-        <v>116.3709522502873</v>
+        <v>469.5253107578308</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6.393519163131714</v>
+        <v>7.368959665298462</v>
       </c>
       <c r="B93" t="n">
-        <v>158.1801176648061</v>
+        <v>476.0994691782207</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6.452455520629883</v>
+        <v>7.447574377059937</v>
       </c>
       <c r="B94" t="n">
-        <v>111.1879089501344</v>
+        <v>479.3437038281728</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6.508762121200562</v>
+        <v>7.525803327560425</v>
       </c>
       <c r="B95" t="n">
-        <v>56.79260151923415</v>
+        <v>538.9814427815097</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6.571682929992676</v>
+        <v>7.600125074386597</v>
       </c>
       <c r="B96" t="n">
-        <v>137.2936363340774</v>
+        <v>572.3398442643423</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6.630187749862671</v>
+        <v>7.678587436676025</v>
       </c>
       <c r="B97" t="n">
-        <v>246.5595638708828</v>
+        <v>531.9052906959256</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6.692378520965576</v>
+        <v>7.751621246337891</v>
       </c>
       <c r="B98" t="n">
-        <v>401.2531873084259</v>
+        <v>618.9400297562967</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6.758011102676392</v>
+        <v>7.821810483932495</v>
       </c>
       <c r="B99" t="n">
-        <v>519.0605044795358</v>
+        <v>669.426677080694</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6.822474718093872</v>
+        <v>7.897373199462891</v>
       </c>
       <c r="B100" t="n">
-        <v>638.0183042285167</v>
+        <v>679.907501307778</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6.881035089492798</v>
+        <v>7.97209358215332</v>
       </c>
       <c r="B101" t="n">
-        <v>705.1515062545936</v>
+        <v>706.9643826715163</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6.940776824951172</v>
+        <v>8.048047780990601</v>
       </c>
       <c r="B102" t="n">
-        <v>703.2246232433876</v>
+        <v>668.3150199607484</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6.991103649139404</v>
+        <v>8.110702753067017</v>
       </c>
       <c r="B103" t="n">
-        <v>748.8226696360426</v>
+        <v>859.0070907843992</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>7.053519010543823</v>
+        <v>8.183878183364868</v>
       </c>
       <c r="B104" t="n">
-        <v>591.5579066603053</v>
+        <v>724.6685735226612</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>7.11299991607666</v>
+        <v>8.260971546173096</v>
       </c>
       <c r="B105" t="n">
-        <v>571.4871651192617</v>
+        <v>667.4525527501478</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7.164530038833618</v>
+        <v>8.330690383911133</v>
       </c>
       <c r="B106" t="n">
-        <v>657.6408286911129</v>
+        <v>659.2275874303165</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>7.21831226348877</v>
+        <v>8.404187202453613</v>
       </c>
       <c r="B107" t="n">
-        <v>540.515092020662</v>
+        <v>589.9897519195737</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>7.274672985076904</v>
+        <v>8.480137825012207</v>
       </c>
       <c r="B108" t="n">
-        <v>384.3183931252121</v>
+        <v>539.2584238016</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>7.344225883483887</v>
+        <v>8.555020809173584</v>
       </c>
       <c r="B109" t="n">
-        <v>198.9030389207387</v>
+        <v>542.9513963356699</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7.403140544891357</v>
+        <v>8.628140211105347</v>
       </c>
       <c r="B110" t="n">
-        <v>200.3358402084238</v>
+        <v>448.628337715583</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>7.462126731872559</v>
+        <v>8.702189922332764</v>
       </c>
       <c r="B111" t="n">
-        <v>94.58264243421696</v>
+        <v>277.9817745827107</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>7.520612716674805</v>
+        <v>8.770980596542358</v>
       </c>
       <c r="B112" t="n">
-        <v>41.63946803721981</v>
+        <v>207.4914623324348</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>7.600593090057373</v>
+        <v>8.84438943862915</v>
       </c>
       <c r="B113" t="n">
-        <v>13.20724487996574</v>
+        <v>210.0279584408221</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>7.673202276229858</v>
+        <v>8.920962333679199</v>
       </c>
       <c r="B114" t="n">
-        <v>60.42557694010628</v>
+        <v>202.0866787496159</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>7.733559131622314</v>
+        <v>8.998095512390137</v>
       </c>
       <c r="B115" t="n">
-        <v>59.6098704716047</v>
+        <v>175.3788787109916</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7.796897172927856</v>
+        <v>9.067045927047729</v>
       </c>
       <c r="B116" t="n">
-        <v>85.31632283602309</v>
+        <v>169.0012591935913</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>7.866448879241943</v>
+        <v>9.14544415473938</v>
       </c>
       <c r="B117" t="n">
-        <v>63.16566313203128</v>
+        <v>145.1488763314193</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>7.93359375</v>
+        <v>9.220412731170654</v>
       </c>
       <c r="B118" t="n">
-        <v>96.99452624890202</v>
+        <v>143.0127979446168</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>7.997070550918579</v>
+        <v>9.295739889144897</v>
       </c>
       <c r="B119" t="n">
-        <v>271.526363301789</v>
+        <v>151.1881015320834</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.057369470596313</v>
+        <v>9.370604991912842</v>
       </c>
       <c r="B120" t="n">
-        <v>316.7117926972157</v>
+        <v>115.9138927183341</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.110509157180786</v>
+        <v>9.443455457687378</v>
       </c>
       <c r="B121" t="n">
-        <v>207.5636340355722</v>
+        <v>134.3495844580839</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>8.178463220596313</v>
+        <v>9.515699863433838</v>
       </c>
       <c r="B122" t="n">
-        <v>49.45949897137963</v>
+        <v>161.4686621513495</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8.245962142944336</v>
+        <v>9.586449384689331</v>
       </c>
       <c r="B123" t="n">
-        <v>117.3533669836656</v>
+        <v>207.550204865157</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8.312583684921265</v>
+        <v>9.661542654037476</v>
       </c>
       <c r="B124" t="n">
-        <v>87.38333149396661</v>
+        <v>194.2956568080673</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.37650728225708</v>
+        <v>9.734516620635986</v>
       </c>
       <c r="B125" t="n">
-        <v>177.130384322944</v>
+        <v>233.9561909167112</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8.43934440612793</v>
+        <v>9.806345462799072</v>
       </c>
       <c r="B126" t="n">
-        <v>17.07945401830798</v>
+        <v>300.1110250826904</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8.497997283935547</v>
+        <v>9.881659507751465</v>
       </c>
       <c r="B127" t="n">
-        <v>91.95736153680878</v>
+        <v>328.3332504606276</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.56554102897644</v>
+        <v>9.956904172897339</v>
       </c>
       <c r="B128" t="n">
-        <v>114.7677546297958</v>
+        <v>416.5749977236485</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8.620251178741455</v>
+        <v>10.03260469436646</v>
       </c>
       <c r="B129" t="n">
-        <v>119.8538083830624</v>
+        <v>370.1813922717164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8.682770490646362</v>
+        <v>10.1042058467865</v>
       </c>
       <c r="B130" t="n">
-        <v>104.5417966559352</v>
+        <v>465.5703687250821</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8.74116587638855</v>
+        <v>10.18039536476135</v>
       </c>
       <c r="B131" t="n">
-        <v>168.8709469615632</v>
+        <v>441.0993955231131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8.804983377456665</v>
+        <v>10.25456762313843</v>
       </c>
       <c r="B132" t="n">
-        <v>37.67186107872894</v>
+        <v>395.4888785044826</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8.870655059814453</v>
+        <v>10.33050608634949</v>
       </c>
       <c r="B133" t="n">
-        <v>205.8311556534843</v>
+        <v>172.3946243555844</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8.927364587783813</v>
+        <v>10.40082931518555</v>
       </c>
       <c r="B134" t="n">
-        <v>402.8295393947391</v>
+        <v>208.8693782861378</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8.99328875541687</v>
+        <v>10.47937798500061</v>
       </c>
       <c r="B135" t="n">
-        <v>458.2364403040459</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>9.054673433303833</v>
-      </c>
-      <c r="B136" t="n">
-        <v>427.4172658889883</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>9.123685598373413</v>
-      </c>
-      <c r="B137" t="n">
-        <v>355.0815642514032</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>9.183131694793701</v>
-      </c>
-      <c r="B138" t="n">
-        <v>762.5296668177946</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>9.24445629119873</v>
-      </c>
-      <c r="B139" t="n">
-        <v>610.2128806303451</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>9.300100803375244</v>
-      </c>
-      <c r="B140" t="n">
-        <v>408.2559424062233</v>
+        <v>175.977600299891</v>
       </c>
     </row>
   </sheetData>
@@ -11572,7 +11412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -11585,306 +11425,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6.970727682113647</v>
+        <v>8.084357976913452</v>
       </c>
       <c r="B1" t="n">
-        <v>176.9740826626256</v>
+        <v>168.4922693030872</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.020908355712891</v>
+        <v>8.148214817047119</v>
       </c>
       <c r="B2" t="n">
-        <v>175.5310218517296</v>
+        <v>164.2248843741733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.085859298706055</v>
+        <v>8.225760698318481</v>
       </c>
       <c r="B3" t="n">
-        <v>176.6935775551694</v>
+        <v>156.5611312248377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.141650199890137</v>
+        <v>8.296772718429565</v>
       </c>
       <c r="B4" t="n">
-        <v>176.6935775551694</v>
+        <v>154.0781386721494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.193949222564697</v>
+        <v>8.366776466369629</v>
       </c>
       <c r="B5" t="n">
-        <v>175.7219171605114</v>
+        <v>147.2377182484819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.248077869415283</v>
+        <v>8.440797090530396</v>
       </c>
       <c r="B6" t="n">
-        <v>179.3956365556027</v>
+        <v>148.3960937984029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.307225465774536</v>
+        <v>8.516403436660767</v>
       </c>
       <c r="B7" t="n">
-        <v>180.9298597908987</v>
+        <v>143.3849325070033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.374633550643921</v>
+        <v>8.591235637664795</v>
       </c>
       <c r="B8" t="n">
-        <v>182.367666597877</v>
+        <v>134.7695892601093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.433181047439575</v>
+        <v>8.664197444915771</v>
       </c>
       <c r="B9" t="n">
-        <v>181.6329253208689</v>
+        <v>127.3331957381858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.492751836776733</v>
+        <v>8.737912654876709</v>
       </c>
       <c r="B10" t="n">
-        <v>180.8125786550593</v>
+        <v>131.210903343091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.551737546920776</v>
+        <v>8.807669401168823</v>
       </c>
       <c r="B11" t="n">
-        <v>189.3277133263946</v>
+        <v>132.5633517531899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.633514404296875</v>
+        <v>8.880946159362793</v>
       </c>
       <c r="B12" t="n">
-        <v>194.9514419749249</v>
+        <v>132.0624095017681</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.708977222442627</v>
+        <v>8.960201978683472</v>
       </c>
       <c r="B13" t="n">
-        <v>203.6583989361983</v>
+        <v>131.5466837494689</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.763813257217407</v>
+        <v>9.034210681915283</v>
       </c>
       <c r="B14" t="n">
-        <v>210.3639939184877</v>
+        <v>136.8963976325014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.830127954483032</v>
+        <v>9.105531454086304</v>
       </c>
       <c r="B15" t="n">
-        <v>204.1202532554963</v>
+        <v>138.4422152858974</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.89957594871521</v>
+        <v>9.182682275772095</v>
       </c>
       <c r="B16" t="n">
-        <v>205.8695516396579</v>
+        <v>151.6104753779832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.968766450881958</v>
+        <v>9.259881258010864</v>
       </c>
       <c r="B17" t="n">
-        <v>197.596932609552</v>
+        <v>154.2758776231377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.03045654296875</v>
+        <v>9.332870483398438</v>
       </c>
       <c r="B18" t="n">
-        <v>193.6148423727915</v>
+        <v>158.7003395432904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.086910724639893</v>
+        <v>9.40838885307312</v>
       </c>
       <c r="B19" t="n">
-        <v>196.0251629744087</v>
+        <v>164.5428457539893</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.142257690429688</v>
+        <v>9.480165243148804</v>
       </c>
       <c r="B20" t="n">
-        <v>199.387129195125</v>
+        <v>169.4435618142417</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.211671590805054</v>
+        <v>9.553825855255127</v>
       </c>
       <c r="B21" t="n">
-        <v>201.1813495002662</v>
+        <v>167.8335684846485</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.276441097259521</v>
+        <v>9.624319791793823</v>
       </c>
       <c r="B22" t="n">
-        <v>173.9465434685177</v>
+        <v>167.8699115115281</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.348095893859863</v>
+        <v>9.695135354995728</v>
       </c>
       <c r="B23" t="n">
-        <v>192.9010727452148</v>
+        <v>165.9101804781466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.407512664794922</v>
+        <v>9.771267414093018</v>
       </c>
       <c r="B24" t="n">
-        <v>188.3447143067256</v>
+        <v>164.4634256243135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.467878818511963</v>
+        <v>9.844002723693848</v>
       </c>
       <c r="B25" t="n">
-        <v>211.3761346889099</v>
+        <v>170.5292083493882</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.533657550811768</v>
+        <v>9.920917510986328</v>
       </c>
       <c r="B26" t="n">
-        <v>222.2730686331982</v>
+        <v>161.0266147820265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.596125841140747</v>
+        <v>9.99141001701355</v>
       </c>
       <c r="B27" t="n">
-        <v>228.1451051829646</v>
+        <v>167.5538701259784</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.650827407836914</v>
+        <v>10.06926941871643</v>
       </c>
       <c r="B28" t="n">
-        <v>232.3042891666031</v>
+        <v>166.8581285535239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.716206550598145</v>
+        <v>10.1397078037262</v>
       </c>
       <c r="B29" t="n">
-        <v>233.7353169514008</v>
+        <v>171.8743367703035</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.773228883743286</v>
+        <v>10.21737194061279</v>
       </c>
       <c r="B30" t="n">
-        <v>228.3150854203415</v>
+        <v>174.1252497569695</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.842457056045532</v>
+        <v>10.29172587394714</v>
       </c>
       <c r="B31" t="n">
-        <v>225.0234594416451</v>
+        <v>174.3824194098732</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.901801824569702</v>
+        <v>10.36802768707275</v>
       </c>
       <c r="B32" t="n">
-        <v>214.9602695182818</v>
+        <v>172.7179640224488</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.957437753677368</v>
+        <v>10.44062089920044</v>
       </c>
       <c r="B33" t="n">
-        <v>196.0037160008653</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>9.0239577293396</v>
-      </c>
-      <c r="B34" t="n">
-        <v>198.9541285131416</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>9.089544296264648</v>
-      </c>
-      <c r="B35" t="n">
-        <v>237.1836565859874</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>9.153384923934937</v>
-      </c>
-      <c r="B36" t="n">
-        <v>220.148327110635</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>9.213563442230225</v>
-      </c>
-      <c r="B37" t="n">
-        <v>206.3028297606815</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>9.276259660720825</v>
-      </c>
-      <c r="B38" t="n">
-        <v>236.888658039628</v>
+        <v>170.1962343907805</v>
       </c>
     </row>
   </sheetData>

--- a/static/Left Leg.xlsx
+++ b/static/Left Leg.xlsx
@@ -7016,15 +7016,15 @@
         <v>535</v>
       </c>
       <c r="B1" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
@@ -7037,23 +7037,23 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B4" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B5" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B6" t="n">
         <v>316</v>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B7" t="n">
         <v>316</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8" t="n">
         <v>316</v>
@@ -7085,10 +7085,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B10" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11">
@@ -7117,7 +7117,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B14" t="n">
         <v>310</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B15" t="n">
         <v>310</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B16" t="n">
         <v>310</v>
@@ -7152,7 +7152,7 @@
         <v>477</v>
       </c>
       <c r="B18" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19">
@@ -7160,7 +7160,7 @@
         <v>473</v>
       </c>
       <c r="B19" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20">
@@ -7168,7 +7168,7 @@
         <v>469</v>
       </c>
       <c r="B20" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21">
@@ -7184,7 +7184,7 @@
         <v>463</v>
       </c>
       <c r="B22" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23">
@@ -7192,7 +7192,7 @@
         <v>458</v>
       </c>
       <c r="B23" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24">
@@ -7200,7 +7200,7 @@
         <v>454</v>
       </c>
       <c r="B24" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25">
@@ -7232,7 +7232,7 @@
         <v>446</v>
       </c>
       <c r="B28" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29">
@@ -7240,15 +7240,15 @@
         <v>445</v>
       </c>
       <c r="B29" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B30" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31">
@@ -7261,10 +7261,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B32" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
@@ -7277,10 +7277,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B34" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
@@ -7309,7 +7309,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B38" t="n">
         <v>317</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B40" t="n">
         <v>316</v>
@@ -7333,10 +7333,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B41" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42">
@@ -7344,15 +7344,15 @@
         <v>405</v>
       </c>
       <c r="B42" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B43" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44">
@@ -7360,7 +7360,7 @@
         <v>397</v>
       </c>
       <c r="B44" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45">
@@ -7368,15 +7368,15 @@
         <v>394</v>
       </c>
       <c r="B45" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47">
@@ -7384,20 +7384,20 @@
         <v>386</v>
       </c>
       <c r="B47" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B48" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" t="n">
         <v>310</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B51" t="n">
         <v>309</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B52" t="n">
         <v>309</v>
@@ -7440,15 +7440,15 @@
         <v>365</v>
       </c>
       <c r="B54" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B55" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56">
@@ -7456,7 +7456,7 @@
         <v>356</v>
       </c>
       <c r="B56" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57">
@@ -7464,7 +7464,7 @@
         <v>352</v>
       </c>
       <c r="B57" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58">
@@ -7472,20 +7472,20 @@
         <v>348</v>
       </c>
       <c r="B58" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B59" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B60" t="n">
         <v>308</v>
@@ -7496,7 +7496,7 @@
         <v>341</v>
       </c>
       <c r="B61" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62">
@@ -7520,7 +7520,7 @@
         <v>334</v>
       </c>
       <c r="B64" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65">
@@ -7541,10 +7541,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B67" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68">
@@ -7552,7 +7552,7 @@
         <v>318</v>
       </c>
       <c r="B68" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69">
@@ -7565,15 +7565,15 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B70" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B71" t="n">
         <v>315</v>
@@ -7592,7 +7592,7 @@
         <v>298</v>
       </c>
       <c r="B73" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74">
@@ -7600,12 +7600,12 @@
         <v>294</v>
       </c>
       <c r="B74" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B75" t="n">
         <v>315</v>
@@ -7613,18 +7613,18 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B77" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78">
@@ -7632,7 +7632,7 @@
         <v>282</v>
       </c>
       <c r="B78" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79">
@@ -7640,7 +7640,7 @@
         <v>279</v>
       </c>
       <c r="B79" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80">
@@ -7648,12 +7648,12 @@
         <v>276</v>
       </c>
       <c r="B80" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B81" t="n">
         <v>310</v>
@@ -7696,7 +7696,7 @@
         <v>258</v>
       </c>
       <c r="B86" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87">
@@ -7704,7 +7704,7 @@
         <v>254</v>
       </c>
       <c r="B87" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88">
@@ -7712,15 +7712,15 @@
         <v>250</v>
       </c>
       <c r="B88" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B89" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90">
@@ -7733,7 +7733,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B91" t="n">
         <v>311</v>
@@ -7741,10 +7741,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B92" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93">
@@ -7752,7 +7752,7 @@
         <v>234</v>
       </c>
       <c r="B93" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94">
@@ -7789,7 +7789,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B98" t="n">
         <v>317</v>
@@ -7800,7 +7800,7 @@
         <v>221</v>
       </c>
       <c r="B99" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100">
@@ -7808,7 +7808,7 @@
         <v>217</v>
       </c>
       <c r="B100" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101">
@@ -7840,7 +7840,7 @@
         <v>202</v>
       </c>
       <c r="B104" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105">
@@ -7848,7 +7848,7 @@
         <v>199</v>
       </c>
       <c r="B105" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106">
@@ -7869,7 +7869,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B108" t="n">
         <v>322</v>
@@ -7880,7 +7880,7 @@
         <v>183</v>
       </c>
       <c r="B109" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110">
@@ -7888,7 +7888,7 @@
         <v>180</v>
       </c>
       <c r="B110" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111">
@@ -7896,12 +7896,12 @@
         <v>176</v>
       </c>
       <c r="B111" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B112" t="n">
         <v>318</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B114" t="n">
         <v>314</v>
@@ -7952,7 +7952,7 @@
         <v>156</v>
       </c>
       <c r="B118" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119">
@@ -7960,12 +7960,12 @@
         <v>153</v>
       </c>
       <c r="B119" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B120" t="n">
         <v>309</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B122" t="n">
         <v>310</v>
@@ -7989,26 +7989,26 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B123" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B124" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126">
@@ -8016,12 +8016,12 @@
         <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>310</v>
@@ -8029,18 +8029,18 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B128" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B129" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130">
@@ -8048,7 +8048,7 @@
         <v>118</v>
       </c>
       <c r="B130" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131">
@@ -8056,23 +8056,23 @@
         <v>116</v>
       </c>
       <c r="B131" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B132" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B133" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134">
@@ -8080,7 +8080,7 @@
         <v>108</v>
       </c>
       <c r="B134" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135">
@@ -8116,7 +8116,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B1" t="n">
         <v>380</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B2" t="n">
         <v>383</v>
@@ -8140,10 +8140,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B4" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
@@ -8156,7 +8156,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B6" t="n">
         <v>388</v>
@@ -8164,15 +8164,15 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B7" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B8" t="n">
         <v>388</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B9" t="n">
         <v>388</v>
@@ -8191,31 +8191,31 @@
         <v>486</v>
       </c>
       <c r="B10" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B11" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B12" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B13" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14">
@@ -8236,10 +8236,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B16" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17">
@@ -8263,7 +8263,7 @@
         <v>461</v>
       </c>
       <c r="B19" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20">
@@ -8276,18 +8276,18 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B21" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B22" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23">
@@ -8295,15 +8295,15 @@
         <v>445</v>
       </c>
       <c r="B23" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B24" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25">
@@ -8311,7 +8311,7 @@
         <v>433</v>
       </c>
       <c r="B25" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26">
@@ -8327,12 +8327,12 @@
         <v>426</v>
       </c>
       <c r="B27" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B28" t="n">
         <v>381</v>
@@ -8340,18 +8340,18 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B29" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B30" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31">
@@ -8364,7 +8364,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B32" t="n">
         <v>383</v>
@@ -8383,7 +8383,7 @@
         <v>408</v>
       </c>
       <c r="B34" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35">
@@ -8404,7 +8404,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B37" t="n">
         <v>387</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B38" t="n">
         <v>388</v>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B39" t="n">
         <v>389</v>
@@ -8428,15 +8428,15 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B40" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B41" t="n">
         <v>389</v>
@@ -8444,15 +8444,15 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B42" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B43" t="n">
         <v>389</v>
@@ -8460,10 +8460,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B44" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
@@ -8471,15 +8471,15 @@
         <v>382</v>
       </c>
       <c r="B45" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B46" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47">
@@ -8487,12 +8487,12 @@
         <v>377</v>
       </c>
       <c r="B47" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B48" t="n">
         <v>386</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" t="n">
         <v>386</v>
@@ -8508,18 +8508,18 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B50" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B51" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52">
@@ -8527,12 +8527,12 @@
         <v>364</v>
       </c>
       <c r="B52" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B53" t="n">
         <v>383</v>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B55" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56">
@@ -8564,18 +8564,18 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B57" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B58" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59">
@@ -8583,20 +8583,20 @@
         <v>325</v>
       </c>
       <c r="B59" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B60" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B61" t="n">
         <v>378</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B62" t="n">
         <v>381</v>
@@ -8612,10 +8612,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B63" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64">
@@ -8623,12 +8623,12 @@
         <v>313</v>
       </c>
       <c r="B64" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B65" t="n">
         <v>384</v>
@@ -8644,10 +8644,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68">
@@ -8655,7 +8655,7 @@
         <v>294</v>
       </c>
       <c r="B68" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69">
@@ -8663,20 +8663,20 @@
         <v>292</v>
       </c>
       <c r="B69" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B70" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B71" t="n">
         <v>387</v>
@@ -8695,7 +8695,7 @@
         <v>287</v>
       </c>
       <c r="B73" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74">
@@ -8716,10 +8716,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B76" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77">
@@ -8727,20 +8727,20 @@
         <v>272</v>
       </c>
       <c r="B77" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B78" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B79" t="n">
         <v>388</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B80" t="n">
         <v>387</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B81" t="n">
         <v>385</v>
@@ -8764,10 +8764,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B82" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83">
@@ -8775,7 +8775,7 @@
         <v>256</v>
       </c>
       <c r="B83" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84">
@@ -8783,12 +8783,12 @@
         <v>253</v>
       </c>
       <c r="B84" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B85" t="n">
         <v>382</v>
@@ -8796,10 +8796,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B86" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87">
@@ -8807,23 +8807,23 @@
         <v>240</v>
       </c>
       <c r="B87" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B88" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B89" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90">
@@ -8831,15 +8831,15 @@
         <v>227</v>
       </c>
       <c r="B90" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B91" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92">
@@ -8852,15 +8852,15 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B93" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B94" t="n">
         <v>383</v>
@@ -8868,15 +8868,15 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B96" t="n">
         <v>385</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B97" t="n">
         <v>385</v>
@@ -8903,20 +8903,20 @@
         <v>194</v>
       </c>
       <c r="B99" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B100" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B101" t="n">
         <v>390</v>
@@ -8927,7 +8927,7 @@
         <v>184</v>
       </c>
       <c r="B102" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103">
@@ -8959,12 +8959,12 @@
         <v>171</v>
       </c>
       <c r="B106" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B107" t="n">
         <v>395</v>
@@ -8972,26 +8972,26 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B108" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B109" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111">
@@ -8999,15 +8999,15 @@
         <v>163</v>
       </c>
       <c r="B111" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B112" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113">
@@ -9020,7 +9020,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B114" t="n">
         <v>390</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B115" t="n">
         <v>389</v>
@@ -9036,18 +9036,18 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B116" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118">
@@ -9055,20 +9055,20 @@
         <v>148</v>
       </c>
       <c r="B118" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B119" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B120" t="n">
         <v>385</v>
@@ -9079,7 +9079,7 @@
         <v>140</v>
       </c>
       <c r="B121" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="122">
@@ -9087,23 +9087,23 @@
         <v>137</v>
       </c>
       <c r="B122" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B123" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B124" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125">
@@ -9111,28 +9111,28 @@
         <v>122</v>
       </c>
       <c r="B125" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B127" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B128" t="n">
         <v>384</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B129" t="n">
         <v>384</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B130" t="n">
         <v>384</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B131" t="n">
         <v>384</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B132" t="n">
         <v>385</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B133" t="n">
         <v>388</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B134" t="n">
         <v>388</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B135" t="n">
         <v>388</v>
@@ -9230,7 +9230,7 @@
         <v>483</v>
       </c>
       <c r="B2" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3">
@@ -9254,39 +9254,39 @@
         <v>481</v>
       </c>
       <c r="B5" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="B6" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B7" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B8" t="n">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B9" t="n">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10">
@@ -9294,7 +9294,7 @@
         <v>479</v>
       </c>
       <c r="B10" t="n">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
@@ -9302,23 +9302,23 @@
         <v>479</v>
       </c>
       <c r="B11" t="n">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B12" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B13" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14">
@@ -9326,7 +9326,7 @@
         <v>480</v>
       </c>
       <c r="B14" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15">
@@ -9334,39 +9334,39 @@
         <v>480</v>
       </c>
       <c r="B15" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B16" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B17" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B18" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B19" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20">
@@ -9374,15 +9374,15 @@
         <v>484</v>
       </c>
       <c r="B20" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B21" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22">
@@ -9390,7 +9390,7 @@
         <v>471</v>
       </c>
       <c r="B22" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23">
@@ -9406,12 +9406,12 @@
         <v>456</v>
       </c>
       <c r="B24" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B25" t="n">
         <v>448</v>
@@ -9422,7 +9422,7 @@
         <v>431</v>
       </c>
       <c r="B26" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27">
@@ -9435,10 +9435,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B28" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29">
@@ -9446,7 +9446,7 @@
         <v>403</v>
       </c>
       <c r="B29" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30">
@@ -9459,7 +9459,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B31" t="n">
         <v>454</v>
@@ -9475,15 +9475,15 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B33" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B34" t="n">
         <v>454</v>
@@ -9491,10 +9491,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36">
@@ -9515,7 +9515,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B38" t="n">
         <v>459</v>
@@ -9523,7 +9523,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B39" t="n">
         <v>459</v>
@@ -9531,15 +9531,15 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="B40" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B41" t="n">
         <v>442</v>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B42" t="n">
         <v>452</v>
@@ -9566,12 +9566,12 @@
         <v>376</v>
       </c>
       <c r="B44" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B45" t="n">
         <v>459</v>
@@ -9582,7 +9582,7 @@
         <v>377</v>
       </c>
       <c r="B46" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47">
@@ -9590,7 +9590,7 @@
         <v>377</v>
       </c>
       <c r="B47" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48">
@@ -9598,7 +9598,7 @@
         <v>377</v>
       </c>
       <c r="B48" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49">
@@ -9606,55 +9606,55 @@
         <v>377</v>
       </c>
       <c r="B49" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B50" t="n">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B51" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B52" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B53" t="n">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B54" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B55" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56">
@@ -9662,7 +9662,7 @@
         <v>362</v>
       </c>
       <c r="B56" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57">
@@ -9670,7 +9670,7 @@
         <v>353</v>
       </c>
       <c r="B57" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58">
@@ -9678,7 +9678,7 @@
         <v>340</v>
       </c>
       <c r="B58" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59">
@@ -9686,47 +9686,47 @@
         <v>330</v>
       </c>
       <c r="B59" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B60" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B61" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B62" t="n">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="B63" t="n">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B64" t="n">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65">
@@ -9734,7 +9734,7 @@
         <v>276</v>
       </c>
       <c r="B65" t="n">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66">
@@ -9742,23 +9742,23 @@
         <v>273</v>
       </c>
       <c r="B66" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B67" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B68" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69">
@@ -9766,23 +9766,23 @@
         <v>272</v>
       </c>
       <c r="B69" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B70" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B71" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72">
@@ -9790,15 +9790,15 @@
         <v>363</v>
       </c>
       <c r="B72" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B73" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74">
@@ -9806,23 +9806,23 @@
         <v>266</v>
       </c>
       <c r="B74" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B75" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B76" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77">
@@ -9835,63 +9835,63 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="B78" t="n">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="B79" t="n">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B80" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B81" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B82" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B83" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B84" t="n">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B85" t="n">
         <v>441</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B86" t="n">
         <v>442</v>
@@ -9918,7 +9918,7 @@
         <v>260</v>
       </c>
       <c r="B88" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89">
@@ -9926,7 +9926,7 @@
         <v>253</v>
       </c>
       <c r="B89" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90">
@@ -9934,7 +9934,7 @@
         <v>246</v>
       </c>
       <c r="B90" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91">
@@ -9947,18 +9947,18 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B92" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B93" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94">
@@ -9966,7 +9966,7 @@
         <v>199</v>
       </c>
       <c r="B94" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95">
@@ -9974,7 +9974,7 @@
         <v>191</v>
       </c>
       <c r="B95" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96">
@@ -9982,12 +9982,12 @@
         <v>183</v>
       </c>
       <c r="B96" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" t="n">
         <v>457</v>
@@ -9995,10 +9995,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B98" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99">
@@ -10006,7 +10006,7 @@
         <v>167</v>
       </c>
       <c r="B99" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100">
@@ -10019,10 +10019,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102">
@@ -10038,15 +10038,15 @@
         <v>162</v>
       </c>
       <c r="B103" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105">
@@ -10054,7 +10054,7 @@
         <v>160</v>
       </c>
       <c r="B105" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106">
@@ -10062,23 +10062,23 @@
         <v>160</v>
       </c>
       <c r="B106" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B108" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109">
@@ -10086,12 +10086,12 @@
         <v>158</v>
       </c>
       <c r="B109" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B110" t="n">
         <v>462</v>
@@ -10134,7 +10134,7 @@
         <v>160</v>
       </c>
       <c r="B115" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116">
@@ -10158,7 +10158,7 @@
         <v>158</v>
       </c>
       <c r="B118" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119">
@@ -10174,15 +10174,15 @@
         <v>161</v>
       </c>
       <c r="B120" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122">
@@ -10195,7 +10195,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B123" t="n">
         <v>457</v>
@@ -10203,18 +10203,18 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B124" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126">
@@ -10222,15 +10222,15 @@
         <v>117</v>
       </c>
       <c r="B126" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128">
@@ -10238,20 +10238,20 @@
         <v>100</v>
       </c>
       <c r="B128" t="n">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B129" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B130" t="n">
         <v>451</v>
@@ -10259,42 +10259,42 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B131" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B132" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B133" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B134" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B135" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -10322,1082 +10322,1082 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.2503135204315186</v>
+        <v>0.1556828022003174</v>
       </c>
       <c r="B1" t="n">
-        <v>2528.030149275779</v>
+        <v>-3.778166616378821e-07</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4774160385131836</v>
+        <v>0.1783542633056641</v>
       </c>
       <c r="B2" t="n">
-        <v>189.3929961610833</v>
+        <v>139.482746412961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5541348457336426</v>
+        <v>0.2101211547851562</v>
       </c>
       <c r="B3" t="n">
-        <v>622.2549254794693</v>
+        <v>157.396577604323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6428849697113037</v>
+        <v>0.2400319576263428</v>
       </c>
       <c r="B4" t="n">
-        <v>574.4042718504179</v>
+        <v>100.29821051373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7455549240112305</v>
+        <v>0.2808992862701416</v>
       </c>
       <c r="B5" t="n">
-        <v>481.6226565119123</v>
+        <v>109.4305917075932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8210761547088623</v>
+        <v>0.3192453384399414</v>
       </c>
       <c r="B6" t="n">
-        <v>497.2642994452727</v>
+        <v>52.15660770354712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9090273380279541</v>
+        <v>0.3511481285095215</v>
       </c>
       <c r="B7" t="n">
-        <v>277.5162942066424</v>
+        <v>129.2396563631317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.019978761672974</v>
+        <v>0.3780200481414795</v>
       </c>
       <c r="B8" t="n">
-        <v>310.9041842037446</v>
+        <v>52.62793212179793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.106729984283447</v>
+        <v>0.4095022678375244</v>
       </c>
       <c r="B9" t="n">
-        <v>379.9776743381905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.201400518417358</v>
+        <v>0.4490094184875488</v>
       </c>
       <c r="B10" t="n">
-        <v>287.2052389055845</v>
+        <v>56.59906980657964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.283854722976685</v>
+        <v>0.4777274131774902</v>
       </c>
       <c r="B11" t="n">
-        <v>268.1814062692732</v>
+        <v>104.4641184870322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.356483459472656</v>
+        <v>0.5262794494628906</v>
       </c>
       <c r="B12" t="n">
-        <v>201.5732198041459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.442941188812256</v>
+        <v>0.5840320587158203</v>
       </c>
       <c r="B13" t="n">
-        <v>127.0036191106073</v>
+        <v>38.718042464659</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.518989562988281</v>
+        <v>0.6219961643218994</v>
       </c>
       <c r="B14" t="n">
-        <v>161.0806321031718</v>
+        <v>52.68134117927816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.60544228553772</v>
+        <v>0.6658751964569092</v>
       </c>
       <c r="B15" t="n">
-        <v>126.6234832779094</v>
+        <v>72.06808141160646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.678185701370239</v>
+        <v>0.7143847942352295</v>
       </c>
       <c r="B16" t="n">
-        <v>140.0152769204352</v>
+        <v>84.99566713497551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.746875286102295</v>
+        <v>0.7578024864196777</v>
       </c>
       <c r="B17" t="n">
-        <v>125.6327413331733</v>
+        <v>83.04336536697497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.817748785018921</v>
+        <v>0.804638147354126</v>
       </c>
       <c r="B18" t="n">
-        <v>94.54214472730099</v>
+        <v>88.0334673057867</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.889966726303101</v>
+        <v>0.8478524684906006</v>
       </c>
       <c r="B19" t="n">
-        <v>89.35878599431925</v>
+        <v>95.41063048512395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.966105461120605</v>
+        <v>0.8815922737121582</v>
       </c>
       <c r="B20" t="n">
-        <v>89.3051538147686</v>
+        <v>66.27388518743086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.03820013999939</v>
+        <v>0.9120252132415771</v>
       </c>
       <c r="B21" t="n">
-        <v>131.3426092393125</v>
+        <v>131.4365310039563</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.105325937271118</v>
+        <v>0.94142746925354</v>
       </c>
       <c r="B22" t="n">
-        <v>191.415630747502</v>
+        <v>107.5522116017813</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.179821968078613</v>
+        <v>0.9729080200195312</v>
       </c>
       <c r="B23" t="n">
-        <v>252.3481879672133</v>
+        <v>222.3595149917827</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.248590707778931</v>
+        <v>1.001911163330078</v>
       </c>
       <c r="B24" t="n">
-        <v>324.8930295622802</v>
+        <v>103.4370643167171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.320849418640137</v>
+        <v>1.033843040466309</v>
       </c>
       <c r="B25" t="n">
-        <v>411.192008235192</v>
+        <v>281.8500134396559</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.395161151885986</v>
+        <v>1.067073106765747</v>
       </c>
       <c r="B26" t="n">
-        <v>455.4120348496672</v>
+        <v>150.4661457772803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.468090057373047</v>
+        <v>1.094664812088013</v>
       </c>
       <c r="B27" t="n">
-        <v>450.8777251576549</v>
+        <v>81.04131119780241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.546090841293335</v>
+        <v>1.12490439414978</v>
       </c>
       <c r="B28" t="n">
-        <v>420.194883594669</v>
+        <v>73.94506884825266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.620973587036133</v>
+        <v>1.157815456390381</v>
       </c>
       <c r="B29" t="n">
-        <v>429.8581547685027</v>
+        <v>135.8854941328071</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.696680307388306</v>
+        <v>1.196338176727295</v>
       </c>
       <c r="B30" t="n">
-        <v>436.5066903564645</v>
+        <v>77.87612021587364</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.773746967315674</v>
+        <v>1.244533777236938</v>
       </c>
       <c r="B31" t="n">
-        <v>452.4230048866589</v>
+        <v>41.49756365417246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.843919038772583</v>
+        <v>1.266482591629028</v>
       </c>
       <c r="B32" t="n">
-        <v>529.7271628326567</v>
+        <v>136.6816424071258</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.916687965393066</v>
+        <v>1.299298048019409</v>
       </c>
       <c r="B33" t="n">
-        <v>560.0462138515056</v>
+        <v>91.42033450064662</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.987344026565552</v>
+        <v>1.328974723815918</v>
       </c>
       <c r="B34" t="n">
-        <v>596.93426343448</v>
+        <v>67.39299285788886</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.061697483062744</v>
+        <v>1.358686447143555</v>
       </c>
       <c r="B35" t="n">
-        <v>584.0936289339193</v>
+        <v>150.5175551644885</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.140803575515747</v>
+        <v>1.389969348907471</v>
       </c>
       <c r="B36" t="n">
-        <v>588.1396501886251</v>
+        <v>131.8006128949825</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.21005654335022</v>
+        <v>1.426502227783203</v>
       </c>
       <c r="B37" t="n">
-        <v>614.7088649731992</v>
+        <v>61.2070016465397</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.280832290649414</v>
+        <v>1.454207181930542</v>
       </c>
       <c r="B38" t="n">
-        <v>557.2677751693096</v>
+        <v>80.71004072441571</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.35180926322937</v>
+        <v>1.484850406646729</v>
       </c>
       <c r="B39" t="n">
-        <v>528.5349112089427</v>
+        <v>32.63364118045236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.420530319213867</v>
+        <v>1.515149831771851</v>
       </c>
       <c r="B40" t="n">
-        <v>332.1121797414886</v>
+        <v>136.0786750438734</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.492360591888428</v>
+        <v>1.545793533325195</v>
       </c>
       <c r="B41" t="n">
-        <v>86.10088737240616</v>
+        <v>134.5498558142571</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.572072267532349</v>
+        <v>1.576369762420654</v>
       </c>
       <c r="B42" t="n">
-        <v>27.15383793687223</v>
+        <v>294.3463031985403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.650217056274414</v>
+        <v>1.612654447555542</v>
       </c>
       <c r="B43" t="n">
-        <v>191.4087269039001</v>
+        <v>82.67951034568858</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.724889516830444</v>
+        <v>1.6480712890625</v>
       </c>
       <c r="B44" t="n">
-        <v>260.42592741755</v>
+        <v>28.23515473008906</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.803173542022705</v>
+        <v>1.693319082260132</v>
       </c>
       <c r="B45" t="n">
-        <v>193.7830688153011</v>
+        <v>22.10052533683207</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.87826132774353</v>
+        <v>1.735805988311768</v>
       </c>
       <c r="B46" t="n">
-        <v>157.2792240018527</v>
+        <v>47.0733264872084</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.954209804534912</v>
+        <v>1.772637128829956</v>
       </c>
       <c r="B47" t="n">
-        <v>133.5024140668897</v>
+        <v>85.85880360144532</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.026817560195923</v>
+        <v>1.821162462234497</v>
       </c>
       <c r="B48" t="n">
-        <v>149.1401755521073</v>
+        <v>58.28763918356726</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.100943088531494</v>
+        <v>1.867860078811646</v>
       </c>
       <c r="B49" t="n">
-        <v>143.1084185795709</v>
+        <v>64.24310746232079</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.17664909362793</v>
+        <v>1.910953044891357</v>
       </c>
       <c r="B50" t="n">
-        <v>101.7090658121199</v>
+        <v>131.2709419683139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.252081394195557</v>
+        <v>1.958263158798218</v>
       </c>
       <c r="B51" t="n">
-        <v>106.6155363041622</v>
+        <v>29.89241507972828</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.325676679611206</v>
+        <v>1.982469320297241</v>
       </c>
       <c r="B52" t="n">
-        <v>133.5533535331465</v>
+        <v>123.9353872823261</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.398096561431885</v>
+        <v>2.012870788574219</v>
       </c>
       <c r="B53" t="n">
-        <v>141.9846234928666</v>
+        <v>65.78629629920087</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.469135284423828</v>
+        <v>2.044118881225586</v>
       </c>
       <c r="B54" t="n">
-        <v>87.09184966795775</v>
+        <v>32.00195324421657</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.54180908203125</v>
+        <v>2.076342582702637</v>
       </c>
       <c r="B55" t="n">
-        <v>267.6701289818796</v>
+        <v>316.4763375941915</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.616511821746826</v>
+        <v>2.107939481735229</v>
       </c>
       <c r="B56" t="n">
-        <v>287.2741231093371</v>
+        <v>318.0652509841001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.686092138290405</v>
+        <v>2.140971660614014</v>
       </c>
       <c r="B57" t="n">
-        <v>390.992817793814</v>
+        <v>121.0940402895768</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.761910438537598</v>
+        <v>2.177857637405396</v>
       </c>
       <c r="B58" t="n">
-        <v>426.8960853830478</v>
+        <v>162.663443452631</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.839035511016846</v>
+        <v>2.203906297683716</v>
       </c>
       <c r="B59" t="n">
-        <v>443.7565810790259</v>
+        <v>271.4561031666784</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.908906221389771</v>
+        <v>2.235409259796143</v>
       </c>
       <c r="B60" t="n">
-        <v>489.0843473782547</v>
+        <v>31.74304677862457</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.982877016067505</v>
+        <v>2.265172719955444</v>
       </c>
       <c r="B61" t="n">
-        <v>458.7258671873715</v>
+        <v>67.19648822063971</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.058202981948853</v>
+        <v>2.300154209136963</v>
       </c>
       <c r="B62" t="n">
-        <v>413.1448777511351</v>
+        <v>166.6867829607984</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.131650924682617</v>
+        <v>2.3583824634552</v>
       </c>
       <c r="B63" t="n">
-        <v>134.7400022139884</v>
+        <v>61.92099209703969</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.20522403717041</v>
+        <v>2.395054340362549</v>
       </c>
       <c r="B64" t="n">
-        <v>212.0765519690017</v>
+        <v>38.56398094774644</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.279849529266357</v>
+        <v>2.447101354598999</v>
       </c>
       <c r="B65" t="n">
-        <v>451.5496941844582</v>
+        <v>192.1339801466782</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.355498075485229</v>
+        <v>2.490674018859863</v>
       </c>
       <c r="B66" t="n">
-        <v>572.4036711410163</v>
+        <v>68.85050641015118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.432746648788452</v>
+        <v>2.534694194793701</v>
       </c>
       <c r="B67" t="n">
-        <v>638.6399083846627</v>
+        <v>101.5928687273122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.506473302841187</v>
+        <v>2.557694911956787</v>
       </c>
       <c r="B68" t="n">
-        <v>675.6266321502885</v>
+        <v>97.21731551433865</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.581482172012329</v>
+        <v>2.59336256980896</v>
       </c>
       <c r="B69" t="n">
-        <v>633.4445771972453</v>
+        <v>56.073208066791</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.653256177902222</v>
+        <v>2.623058557510376</v>
       </c>
       <c r="B70" t="n">
-        <v>500.3887509083219</v>
+        <v>202.0474974709765</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.730730533599854</v>
+        <v>2.65455174446106</v>
       </c>
       <c r="B71" t="n">
-        <v>90.11392919292786</v>
+        <v>476.2934924143779</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.80584454536438</v>
+        <v>2.683008909225464</v>
       </c>
       <c r="B72" t="n">
-        <v>323.5619343794263</v>
+        <v>35.14053519663533</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.879685163497925</v>
+        <v>2.72096061706543</v>
       </c>
       <c r="B73" t="n">
-        <v>43.09378777967663</v>
+        <v>659.258658711685</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.955669641494751</v>
+        <v>2.752038240432739</v>
       </c>
       <c r="B74" t="n">
-        <v>312.0765101656294</v>
+        <v>160.887463655264</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.031784772872925</v>
+        <v>2.782079219818115</v>
       </c>
       <c r="B75" t="n">
-        <v>339.1003065512758</v>
+        <v>105.2654648705556</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.10684061050415</v>
+        <v>2.838382005691528</v>
       </c>
       <c r="B76" t="n">
-        <v>324.5415159782942</v>
+        <v>71.04444190369721</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.178712844848633</v>
+        <v>2.882145881652832</v>
       </c>
       <c r="B77" t="n">
-        <v>325.5375015103035</v>
+        <v>72.25771462665887</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.250178575515747</v>
+        <v>2.932435512542725</v>
       </c>
       <c r="B78" t="n">
-        <v>239.193088315261</v>
+        <v>19.88481486749158</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6.324000120162964</v>
+        <v>2.975193023681641</v>
       </c>
       <c r="B79" t="n">
-        <v>131.5337382269007</v>
+        <v>23.38770366570387</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.395433664321899</v>
+        <v>3.018175601959229</v>
       </c>
       <c r="B80" t="n">
-        <v>150.3798844728772</v>
+        <v>95.92504197840415</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6.464901447296143</v>
+        <v>3.060112476348877</v>
       </c>
       <c r="B81" t="n">
-        <v>123.2376916419865</v>
+        <v>67.44487198703465</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6.539886236190796</v>
+        <v>3.089609384536743</v>
       </c>
       <c r="B82" t="n">
-        <v>99.78134254581812</v>
+        <v>182.5670939081586</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6.614708423614502</v>
+        <v>3.123564004898071</v>
       </c>
       <c r="B83" t="n">
-        <v>114.0945129013219</v>
+        <v>88.35321873946748</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6.68843150138855</v>
+        <v>3.150474071502686</v>
       </c>
       <c r="B84" t="n">
-        <v>88.64451521090136</v>
+        <v>117.5128143170833</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6.764310359954834</v>
+        <v>3.183388948440552</v>
       </c>
       <c r="B85" t="n">
-        <v>83.5302411726047</v>
+        <v>91.14419615370686</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6.843263149261475</v>
+        <v>3.214834928512573</v>
       </c>
       <c r="B86" t="n">
-        <v>95.83548650136883</v>
+        <v>89.94558663041113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6.919843435287476</v>
+        <v>3.243079900741577</v>
       </c>
       <c r="B87" t="n">
-        <v>152.2722105949626</v>
+        <v>283.2362494513286</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6.995961666107178</v>
+        <v>3.274639129638672</v>
       </c>
       <c r="B88" t="n">
-        <v>215.7279543862119</v>
+        <v>126.7458090640558</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7.074205160140991</v>
+        <v>3.307618856430054</v>
       </c>
       <c r="B89" t="n">
-        <v>278.9543473354808</v>
+        <v>154.6107263364366</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.149411678314209</v>
+        <v>3.341256141662598</v>
       </c>
       <c r="B90" t="n">
-        <v>324.5944865433081</v>
+        <v>118.9156607718751</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7.223757743835449</v>
+        <v>3.37032675743103</v>
       </c>
       <c r="B91" t="n">
-        <v>400.9149435297456</v>
+        <v>175.4011526350171</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.296116590499878</v>
+        <v>3.406323909759521</v>
       </c>
       <c r="B92" t="n">
-        <v>469.5253107578308</v>
+        <v>166.6798513739957</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.368959665298462</v>
+        <v>3.450005054473877</v>
       </c>
       <c r="B93" t="n">
-        <v>476.0994691782207</v>
+        <v>116.7327355300978</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7.447574377059937</v>
+        <v>3.485812425613403</v>
       </c>
       <c r="B94" t="n">
-        <v>479.3437038281728</v>
+        <v>100.6929903179617</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.525803327560425</v>
+        <v>3.528249502182007</v>
       </c>
       <c r="B95" t="n">
-        <v>538.9814427815097</v>
+        <v>97.15809756480924</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7.600125074386597</v>
+        <v>3.565828561782837</v>
       </c>
       <c r="B96" t="n">
-        <v>572.3398442643423</v>
+        <v>84.14999453840852</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7.678587436676025</v>
+        <v>3.618006706237793</v>
       </c>
       <c r="B97" t="n">
-        <v>531.9052906959256</v>
+        <v>19.16511233670397</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7.751621246337891</v>
+        <v>3.6613450050354</v>
       </c>
       <c r="B98" t="n">
-        <v>618.9400297562967</v>
+        <v>83.19549625845121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.821810483932495</v>
+        <v>3.71308708190918</v>
       </c>
       <c r="B99" t="n">
-        <v>669.426677080694</v>
+        <v>61.11617181278799</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7.897373199462891</v>
+        <v>3.765204668045044</v>
       </c>
       <c r="B100" t="n">
-        <v>679.907501307778</v>
+        <v>42.90428899893081</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>7.97209358215332</v>
+        <v>3.816109418869019</v>
       </c>
       <c r="B101" t="n">
-        <v>706.9643826715163</v>
+        <v>80.99647987424784</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.048047780990601</v>
+        <v>3.859726905822754</v>
       </c>
       <c r="B102" t="n">
-        <v>668.3150199607484</v>
+        <v>102.5308028347239</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.110702753067017</v>
+        <v>3.892844438552856</v>
       </c>
       <c r="B103" t="n">
-        <v>859.0070907843992</v>
+        <v>95.48651120661513</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.183878183364868</v>
+        <v>3.94277548789978</v>
       </c>
       <c r="B104" t="n">
-        <v>724.6685735226612</v>
+        <v>82.57598587544362</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8.260971546173096</v>
+        <v>3.985764026641846</v>
       </c>
       <c r="B105" t="n">
-        <v>667.4525527501478</v>
+        <v>52.015445114717</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.330690383911133</v>
+        <v>4.027196645736694</v>
       </c>
       <c r="B106" t="n">
-        <v>659.2275874303165</v>
+        <v>99.51351654064976</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8.404187202453613</v>
+        <v>4.065383911132812</v>
       </c>
       <c r="B107" t="n">
-        <v>589.9897519195737</v>
+        <v>107.9706960644735</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8.480137825012207</v>
+        <v>4.111606359481812</v>
       </c>
       <c r="B108" t="n">
-        <v>539.2584238016</v>
+        <v>68.41432622287437</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.555020809173584</v>
+        <v>4.153852701187134</v>
       </c>
       <c r="B109" t="n">
-        <v>542.9513963356699</v>
+        <v>23.6706886237683</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.628140211105347</v>
+        <v>4.181167125701904</v>
       </c>
       <c r="B110" t="n">
-        <v>448.628337715583</v>
+        <v>36.6106926199101</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.702189922332764</v>
+        <v>4.21643590927124</v>
       </c>
       <c r="B111" t="n">
-        <v>277.9817745827107</v>
+        <v>63.40076836230651</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.770980596542358</v>
+        <v>4.243014812469482</v>
       </c>
       <c r="B112" t="n">
-        <v>207.4914623324348</v>
+        <v>53.20812344380806</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.84438943862915</v>
+        <v>4.275352001190186</v>
       </c>
       <c r="B113" t="n">
-        <v>210.0279584408221</v>
+        <v>111.4986001598716</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.920962333679199</v>
+        <v>4.306755065917969</v>
       </c>
       <c r="B114" t="n">
-        <v>202.0866787496159</v>
+        <v>71.2054061246282</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.998095512390137</v>
+        <v>4.343128442764282</v>
       </c>
       <c r="B115" t="n">
-        <v>175.3788787109916</v>
+        <v>86.93934779632328</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.067045927047729</v>
+        <v>4.389642477035522</v>
       </c>
       <c r="B116" t="n">
-        <v>169.0012591935913</v>
+        <v>48.07297437286272</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.14544415473938</v>
+        <v>4.43797755241394</v>
       </c>
       <c r="B117" t="n">
-        <v>145.1488763314193</v>
+        <v>58.51707280069967</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.220412731170654</v>
+        <v>4.484070301055908</v>
       </c>
       <c r="B118" t="n">
-        <v>143.0127979446168</v>
+        <v>68.60683628854156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.295739889144897</v>
+        <v>4.528488397598267</v>
       </c>
       <c r="B119" t="n">
-        <v>151.1881015320834</v>
+        <v>45.02669307525912</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.370604991912842</v>
+        <v>4.556082725524902</v>
       </c>
       <c r="B120" t="n">
-        <v>115.9138927183341</v>
+        <v>114.5988287366823</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.443455457687378</v>
+        <v>4.585872650146484</v>
       </c>
       <c r="B121" t="n">
-        <v>134.3495844580839</v>
+        <v>100.7051893587733</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9.515699863433838</v>
+        <v>4.614424228668213</v>
       </c>
       <c r="B122" t="n">
-        <v>161.4686621513495</v>
+        <v>105.072999649281</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.586449384689331</v>
+        <v>4.64872932434082</v>
       </c>
       <c r="B123" t="n">
-        <v>207.550204865157</v>
+        <v>116.600753374199</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.661542654037476</v>
+        <v>4.680204391479492</v>
       </c>
       <c r="B124" t="n">
-        <v>194.2956568080673</v>
+        <v>71.04251653056659</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.734516620635986</v>
+        <v>4.715592622756958</v>
       </c>
       <c r="B125" t="n">
-        <v>233.9561909167112</v>
+        <v>255.8869096095124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.806345462799072</v>
+        <v>4.748957395553589</v>
       </c>
       <c r="B126" t="n">
-        <v>300.1110250826904</v>
+        <v>152.8264419683888</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.881659507751465</v>
+        <v>4.803838014602661</v>
       </c>
       <c r="B127" t="n">
-        <v>328.3332504606276</v>
+        <v>91.10684403047969</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.956904172897339</v>
+        <v>4.838236570358276</v>
       </c>
       <c r="B128" t="n">
-        <v>416.5749977236485</v>
+        <v>82.22517087172989</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.03260469436646</v>
+        <v>4.895124197006226</v>
       </c>
       <c r="B129" t="n">
-        <v>370.1813922717164</v>
+        <v>52.73554508725755</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.1042058467865</v>
+        <v>4.936604976654053</v>
       </c>
       <c r="B130" t="n">
-        <v>465.5703687250821</v>
+        <v>168.7528551640103</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.18039536476135</v>
+        <v>4.968189716339111</v>
       </c>
       <c r="B131" t="n">
-        <v>441.0993955231131</v>
+        <v>63.32171865092545</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.25456762313843</v>
+        <v>5.015629291534424</v>
       </c>
       <c r="B132" t="n">
-        <v>395.4888785044826</v>
+        <v>66.65906360141361</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>10.33050608634949</v>
+        <v>5.065504550933838</v>
       </c>
       <c r="B133" t="n">
-        <v>172.3946243555844</v>
+        <v>60.15006309992734</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10.40082931518555</v>
+        <v>5.108555793762207</v>
       </c>
       <c r="B134" t="n">
-        <v>208.8693782861378</v>
+        <v>162.5969319377527</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10.47937798500061</v>
+        <v>5.155885219573975</v>
       </c>
       <c r="B135" t="n">
-        <v>175.977600299891</v>
+        <v>84.51401916237646</v>
       </c>
     </row>
   </sheetData>
@@ -11412,7 +11412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -11425,266 +11425,1082 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>8.084357976913452</v>
+        <v>0.1744308471679688</v>
       </c>
       <c r="B1" t="n">
-        <v>168.4922693030872</v>
+        <v>176.1902912237301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.148214817047119</v>
+        <v>0.2122941017150879</v>
       </c>
       <c r="B2" t="n">
-        <v>164.2248843741733</v>
+        <v>177.76284976029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.225760698318481</v>
+        <v>0.2407691478729248</v>
       </c>
       <c r="B3" t="n">
-        <v>156.5611312248377</v>
+        <v>176.6621748586024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.296772718429565</v>
+        <v>0.2723243236541748</v>
       </c>
       <c r="B4" t="n">
-        <v>154.0781386721494</v>
+        <v>176.5784169708677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.366776466369629</v>
+        <v>0.30686354637146</v>
       </c>
       <c r="B5" t="n">
-        <v>147.2377182484819</v>
+        <v>175.1641184052361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.440797090530396</v>
+        <v>0.3327183723449707</v>
       </c>
       <c r="B6" t="n">
-        <v>148.3960937984029</v>
+        <v>175.6187788615851</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.516403436660767</v>
+        <v>0.364171028137207</v>
       </c>
       <c r="B7" t="n">
-        <v>143.3849325070033</v>
+        <v>171.9186461702521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.591235637664795</v>
+        <v>0.392197847366333</v>
       </c>
       <c r="B8" t="n">
-        <v>134.7695892601093</v>
+        <v>173.7289225504989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.664197444915771</v>
+        <v>0.4260673522949219</v>
       </c>
       <c r="B9" t="n">
-        <v>127.3331957381858</v>
+        <v>176.2716528928412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.737912654876709</v>
+        <v>0.455909252166748</v>
       </c>
       <c r="B10" t="n">
-        <v>131.210903343091</v>
+        <v>174.4427054702263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.807669401168823</v>
+        <v>0.4862556457519531</v>
       </c>
       <c r="B11" t="n">
-        <v>132.5633517531899</v>
+        <v>171.8051017678829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.880946159362793</v>
+        <v>0.5163948535919189</v>
       </c>
       <c r="B12" t="n">
-        <v>132.0624095017681</v>
+        <v>173.5328966992227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.960201978683472</v>
+        <v>0.5474324226379395</v>
       </c>
       <c r="B13" t="n">
-        <v>131.5466837494689</v>
+        <v>171.7400385654357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.034210681915283</v>
+        <v>0.5789275169372559</v>
       </c>
       <c r="B14" t="n">
-        <v>136.8963976325014</v>
+        <v>170.9340651895325</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.105531454086304</v>
+        <v>0.6143567562103271</v>
       </c>
       <c r="B15" t="n">
-        <v>138.4422152858974</v>
+        <v>169.134868708225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.182682275772095</v>
+        <v>0.6407876014709473</v>
       </c>
       <c r="B16" t="n">
-        <v>151.6104753779832</v>
+        <v>156.7956758949056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.259881258010864</v>
+        <v>0.6708352565765381</v>
       </c>
       <c r="B17" t="n">
-        <v>154.2758776231377</v>
+        <v>144.337562950627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.332870483398438</v>
+        <v>0.7023007869720459</v>
       </c>
       <c r="B18" t="n">
-        <v>158.7003395432904</v>
+        <v>145.2016564749902</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.40838885307312</v>
+        <v>0.7327644824981689</v>
       </c>
       <c r="B19" t="n">
-        <v>164.5428457539893</v>
+        <v>146.288532920187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.480165243148804</v>
+        <v>0.7634692192077637</v>
       </c>
       <c r="B20" t="n">
-        <v>169.4435618142417</v>
+        <v>151.3467570213581</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.553825855255127</v>
+        <v>0.7995035648345947</v>
       </c>
       <c r="B21" t="n">
-        <v>167.8335684846485</v>
+        <v>152.1009736015777</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.624319791793823</v>
+        <v>0.8263587951660156</v>
       </c>
       <c r="B22" t="n">
-        <v>167.8699115115281</v>
+        <v>155.2370232791588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.695135354995728</v>
+        <v>0.8603031635284424</v>
       </c>
       <c r="B23" t="n">
-        <v>165.9101804781466</v>
+        <v>152.8584587722336</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.771267414093018</v>
+        <v>0.8952310085296631</v>
       </c>
       <c r="B24" t="n">
-        <v>164.4634256243135</v>
+        <v>158.6646627240487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.844002723693848</v>
+        <v>0.9415290355682373</v>
       </c>
       <c r="B25" t="n">
-        <v>170.5292083493882</v>
+        <v>158.0292021541884</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.920917510986328</v>
+        <v>0.9853551387786865</v>
       </c>
       <c r="B26" t="n">
-        <v>161.0266147820265</v>
+        <v>161.2889290761325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.99141001701355</v>
+        <v>1.012364387512207</v>
       </c>
       <c r="B27" t="n">
-        <v>167.5538701259784</v>
+        <v>166.1296828077326</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.06926941871643</v>
+        <v>1.044374227523804</v>
       </c>
       <c r="B28" t="n">
-        <v>166.8581285535239</v>
+        <v>173.785609958644</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.1397078037262</v>
+        <v>1.075564861297607</v>
       </c>
       <c r="B29" t="n">
-        <v>171.8743367703035</v>
+        <v>175.1115990518752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.21737194061279</v>
+        <v>1.110994577407837</v>
       </c>
       <c r="B30" t="n">
-        <v>174.1252497569695</v>
+        <v>177.5622495297374</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.29172587394714</v>
+        <v>1.137631416320801</v>
       </c>
       <c r="B31" t="n">
-        <v>174.3824194098732</v>
+        <v>180.4587642310222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.36802768707275</v>
+        <v>1.177013635635376</v>
       </c>
       <c r="B32" t="n">
-        <v>172.7179640224488</v>
+        <v>180.4444576394745</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.44062089920044</v>
+        <v>1.203775405883789</v>
       </c>
       <c r="B33" t="n">
-        <v>170.1962343907805</v>
+        <v>179.1880865441543</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.230930089950562</v>
+      </c>
+      <c r="B34" t="n">
+        <v>180.6725534608993</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.267149448394775</v>
+      </c>
+      <c r="B35" t="n">
+        <v>180.2188044227475</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.29803466796875</v>
+      </c>
+      <c r="B36" t="n">
+        <v>175.6077050029452</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.32715106010437</v>
+      </c>
+      <c r="B37" t="n">
+        <v>176.599466580703</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.355849742889404</v>
+      </c>
+      <c r="B38" t="n">
+        <v>178.5159311973166</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.38868260383606</v>
+      </c>
+      <c r="B39" t="n">
+        <v>178.8966621307567</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.418571949005127</v>
+      </c>
+      <c r="B40" t="n">
+        <v>176.2516749593251</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.449161052703857</v>
+      </c>
+      <c r="B41" t="n">
+        <v>120.5612993038467</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.482190370559692</v>
+      </c>
+      <c r="B42" t="n">
+        <v>166.5042667192042</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.512661695480347</v>
+      </c>
+      <c r="B43" t="n">
+        <v>173.1932445363517</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.543214082717896</v>
+      </c>
+      <c r="B44" t="n">
+        <v>175.355321143914</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.577102899551392</v>
+      </c>
+      <c r="B45" t="n">
+        <v>175.2276580163465</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.605603218078613</v>
+      </c>
+      <c r="B46" t="n">
+        <v>175.1482721412163</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.636134147644043</v>
+      </c>
+      <c r="B47" t="n">
+        <v>173.3333401090986</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.666957378387451</v>
+      </c>
+      <c r="B48" t="n">
+        <v>171.67707115972</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.706510782241821</v>
+      </c>
+      <c r="B49" t="n">
+        <v>169.3281771004016</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.75147008895874</v>
+      </c>
+      <c r="B50" t="n">
+        <v>153.2528393217439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.804983139038086</v>
+      </c>
+      <c r="B51" t="n">
+        <v>156.6761107646957</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.844247341156006</v>
+      </c>
+      <c r="B52" t="n">
+        <v>156.9011519464735</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.887583017349243</v>
+      </c>
+      <c r="B53" t="n">
+        <v>160.0469671297088</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.919456958770752</v>
+      </c>
+      <c r="B54" t="n">
+        <v>167.3026244901162</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.948234558105469</v>
+      </c>
+      <c r="B55" t="n">
+        <v>159.0235646372932</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.978449583053589</v>
+      </c>
+      <c r="B56" t="n">
+        <v>153.1133354759644</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2.010558605194092</v>
+      </c>
+      <c r="B57" t="n">
+        <v>156.7505831840596</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2.040965557098389</v>
+      </c>
+      <c r="B58" t="n">
+        <v>160.6869550280879</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2.072499990463257</v>
+      </c>
+      <c r="B59" t="n">
+        <v>159.2151389860315</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2.106873512268066</v>
+      </c>
+      <c r="B60" t="n">
+        <v>168.0386853443186</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2.155583381652832</v>
+      </c>
+      <c r="B61" t="n">
+        <v>174.980295666056</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2.180762052536011</v>
+      </c>
+      <c r="B62" t="n">
+        <v>176.249696623201</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2.212241888046265</v>
+      </c>
+      <c r="B63" t="n">
+        <v>180.4118808393701</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2.248843908309937</v>
+      </c>
+      <c r="B64" t="n">
+        <v>184.2691988819955</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2.29890775680542</v>
+      </c>
+      <c r="B65" t="n">
+        <v>182.8512112086541</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2.349419116973877</v>
+      </c>
+      <c r="B66" t="n">
+        <v>182.5508866349688</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2.392756462097168</v>
+      </c>
+      <c r="B67" t="n">
+        <v>180.3305886401438</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2.416954517364502</v>
+      </c>
+      <c r="B68" t="n">
+        <v>179.7287547089618</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2.447733402252197</v>
+      </c>
+      <c r="B69" t="n">
+        <v>178.4573985247743</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2.482641458511353</v>
+      </c>
+      <c r="B70" t="n">
+        <v>148.5146917294435</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2.524912595748901</v>
+      </c>
+      <c r="B71" t="n">
+        <v>147.2352008673186</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2.554929733276367</v>
+      </c>
+      <c r="B72" t="n">
+        <v>147.22718160126</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2.585416316986084</v>
+      </c>
+      <c r="B73" t="n">
+        <v>183.4069905643657</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.620110511779785</v>
+      </c>
+      <c r="B74" t="n">
+        <v>183.905521452049</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2.656863927841187</v>
+      </c>
+      <c r="B75" t="n">
+        <v>183.0145026556895</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2.706394672393799</v>
+      </c>
+      <c r="B76" t="n">
+        <v>179.2736941995721</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2.735689640045166</v>
+      </c>
+      <c r="B77" t="n">
+        <v>175.1924400444481</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2.785156011581421</v>
+      </c>
+      <c r="B78" t="n">
+        <v>175.0348685989741</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2.829938650131226</v>
+      </c>
+      <c r="B79" t="n">
+        <v>174.0648814261576</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2.878504514694214</v>
+      </c>
+      <c r="B80" t="n">
+        <v>171.6972129051678</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2.90524435043335</v>
+      </c>
+      <c r="B81" t="n">
+        <v>137.1489979184457</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2.939659833908081</v>
+      </c>
+      <c r="B82" t="n">
+        <v>126.2212537639424</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.990440607070923</v>
+      </c>
+      <c r="B83" t="n">
+        <v>129.2100249842345</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3.037062644958496</v>
+      </c>
+      <c r="B84" t="n">
+        <v>131.0300023491018</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3.081371784210205</v>
+      </c>
+      <c r="B85" t="n">
+        <v>140.5840696241729</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3.124369621276855</v>
+      </c>
+      <c r="B86" t="n">
+        <v>148.337549084943</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3.177356004714966</v>
+      </c>
+      <c r="B87" t="n">
+        <v>145.3851769867767</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3.220729827880859</v>
+      </c>
+      <c r="B88" t="n">
+        <v>149.0904348389569</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.268490552902222</v>
+      </c>
+      <c r="B89" t="n">
+        <v>151.005675499422</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3.316221714019775</v>
+      </c>
+      <c r="B90" t="n">
+        <v>152.7194056607866</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3.35677433013916</v>
+      </c>
+      <c r="B91" t="n">
+        <v>156.8243060452062</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3.40938663482666</v>
+      </c>
+      <c r="B92" t="n">
+        <v>160.57493663203</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3.452999591827393</v>
+      </c>
+      <c r="B93" t="n">
+        <v>161.565051177078</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3.500969171524048</v>
+      </c>
+      <c r="B94" t="n">
+        <v>167.7553408754588</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3.544475078582764</v>
+      </c>
+      <c r="B95" t="n">
+        <v>169.4505135591049</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3.574569702148438</v>
+      </c>
+      <c r="B96" t="n">
+        <v>172.7590795079775</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3.622935056686401</v>
+      </c>
+      <c r="B97" t="n">
+        <v>177.0688018814066</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3.671048641204834</v>
+      </c>
+      <c r="B98" t="n">
+        <v>179.7361530752391</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3.713484764099121</v>
+      </c>
+      <c r="B99" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3.742108345031738</v>
+      </c>
+      <c r="B100" t="n">
+        <v>182.4333475451751</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.775423526763916</v>
+      </c>
+      <c r="B101" t="n">
+        <v>180.2625819357557</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3.804572343826294</v>
+      </c>
+      <c r="B102" t="n">
+        <v>177.7641063543071</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3.835416793823242</v>
+      </c>
+      <c r="B103" t="n">
+        <v>176.2131760851214</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3.867437124252319</v>
+      </c>
+      <c r="B104" t="n">
+        <v>175.640003455024</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3.90073037147522</v>
+      </c>
+      <c r="B105" t="n">
+        <v>174.3693172423648</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3.955016613006592</v>
+      </c>
+      <c r="B106" t="n">
+        <v>170.888642955216</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3.997803449630737</v>
+      </c>
+      <c r="B107" t="n">
+        <v>168.006651276413</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4.040852069854736</v>
+      </c>
+      <c r="B108" t="n">
+        <v>167.2252891675778</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4.072330474853516</v>
+      </c>
+      <c r="B109" t="n">
+        <v>169.2083066748779</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4.120259523391724</v>
+      </c>
+      <c r="B110" t="n">
+        <v>169.106828921704</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4.173271656036377</v>
+      </c>
+      <c r="B111" t="n">
+        <v>173.4026564735226</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4.221276998519897</v>
+      </c>
+      <c r="B112" t="n">
+        <v>173.3163907849497</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4.263036489486694</v>
+      </c>
+      <c r="B113" t="n">
+        <v>171.5984271763062</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4.290063858032227</v>
+      </c>
+      <c r="B114" t="n">
+        <v>170.8604819340802</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4.323869943618774</v>
+      </c>
+      <c r="B115" t="n">
+        <v>167.7698932045059</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4.375242471694946</v>
+      </c>
+      <c r="B116" t="n">
+        <v>168.5833053274682</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4.427255392074585</v>
+      </c>
+      <c r="B117" t="n">
+        <v>168.6353959972356</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>4.466139793395996</v>
+      </c>
+      <c r="B118" t="n">
+        <v>166.415614206075</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4.512436151504517</v>
+      </c>
+      <c r="B119" t="n">
+        <v>162.4673723909597</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>4.564378499984741</v>
+      </c>
+      <c r="B120" t="n">
+        <v>160.8861855865999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>4.607933044433594</v>
+      </c>
+      <c r="B121" t="n">
+        <v>162.3345061519047</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>4.659859180450439</v>
+      </c>
+      <c r="B122" t="n">
+        <v>164.6001817592072</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>4.697521686553955</v>
+      </c>
+      <c r="B123" t="n">
+        <v>163.6622510003054</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>4.729722499847412</v>
+      </c>
+      <c r="B124" t="n">
+        <v>164.2475329956102</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4.757225751876831</v>
+      </c>
+      <c r="B125" t="n">
+        <v>166.5437661050543</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4.787484645843506</v>
+      </c>
+      <c r="B126" t="n">
+        <v>171.7643806757905</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>4.81977391242981</v>
+      </c>
+      <c r="B127" t="n">
+        <v>173.7099357824316</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>4.851217269897461</v>
+      </c>
+      <c r="B128" t="n">
+        <v>177.9025251613731</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4.88157844543457</v>
+      </c>
+      <c r="B129" t="n">
+        <v>188.8980377191526</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4.917042016983032</v>
+      </c>
+      <c r="B130" t="n">
+        <v>187.4097303730754</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4.968436479568481</v>
+      </c>
+      <c r="B131" t="n">
+        <v>182.6366175994057</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5.007439851760864</v>
+      </c>
+      <c r="B132" t="n">
+        <v>168.7367633424651</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>5.035809516906738</v>
+      </c>
+      <c r="B133" t="n">
+        <v>166.7651788892015</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>5.067111968994141</v>
+      </c>
+      <c r="B134" t="n">
+        <v>165.5537091576472</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>5.098941326141357</v>
+      </c>
+      <c r="B135" t="n">
+        <v>165.5537091576472</v>
       </c>
     </row>
   </sheetData>
